--- a/data/hotels_by_city/Houston/Houston_shard_431.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_431.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,12 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g55726-d1159033-Reviews-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
+    <t>98</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-La-Quinta-Inn-Suites-Deer-Park.h2246531.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +145,1004 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/11/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r600336580-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1159033</t>
+  </si>
+  <si>
+    <t>600336580</t>
+  </si>
+  <si>
+    <t>07/27/2018</t>
+  </si>
+  <si>
+    <t>Great place to stay for an extended business trip</t>
+  </si>
+  <si>
+    <t>I really enjoyed this hotel.  Staff was nice.  Check in was simple.  I did my normal pre-settling in inspection and didn't find anything gross.  Breakfast was nice and easy in the morning.  Overall the stay was enjoyable.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r593916484-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>593916484</t>
+  </si>
+  <si>
+    <t>07/07/2018</t>
+  </si>
+  <si>
+    <t>Always a pleasure to stay here.</t>
+  </si>
+  <si>
+    <t>The staff is always helpful and a great place to stay, I wouldn't want to stay anywhere else when I come to town. I look forward to visiting you all again just keep up the great service. Thanks for everything.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r591579296-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>591579296</t>
+  </si>
+  <si>
+    <t>06/28/2018</t>
+  </si>
+  <si>
+    <t>Very nice facility - poor service</t>
+  </si>
+  <si>
+    <t>Extremely slow check-in and out procedure.  Staff lacked customer service training.  English should at least be a second language for staff.  Breakfast variety was not up to LQ standards and not managed by staff properly.  Very nice facility but poor or improper maintenance is becoming evident with observable degradation.</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r584028574-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>584028574</t>
+  </si>
+  <si>
+    <t>05/30/2018</t>
+  </si>
+  <si>
+    <t>College Students</t>
+  </si>
+  <si>
+    <t>We needed a place to get a restful evening, and La Quinta provided that.  We enjoyed our overnight stay, and the breakfast was just what we needed.  We were very pleased with the comfort of the beds in all three of our rooms.  The accommodations where "on-point", allowing us ease of access to WI-FI, so that we could communicate with our offices back in Pensacola, Florida</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r580278602-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>580278602</t>
+  </si>
+  <si>
+    <t>05/14/2018</t>
+  </si>
+  <si>
+    <t>Always Enjoyable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I've been staying at this hotel on and off for eight years. Great rooms, quiet, ample parking, easy to get on the highway, nicely renovated within the past two years. It's the first hotel I check for availability when staying in Houston (a monthly visit). </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r576785233-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>576785233</t>
+  </si>
+  <si>
+    <t>04/30/2018</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r558015753-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>558015753</t>
+  </si>
+  <si>
+    <t>02/02/2018</t>
+  </si>
+  <si>
+    <t>Beds comfortable and room clean.</t>
+  </si>
+  <si>
+    <t>It was clean and pretty quiet.  The beds we very comfortable and the bathroom clean.  Lighting was poor in half of the room where the sofa bed was.  There was no lamps or lights in that area.  Breakfast was good with a good selection.  Coffee was very good but you had to wait till each cup was brewed.  Worth the wait.  Check in went fast as well as checkout.  My only problem was the keys.  My third night my key would not open the door.  Had to go back downstairs to get it re-keyed.  Went back to room door still would not unlock.  Back downstairs and that is when they noticed that they date of check-out is the computer was wrong.  Problem solved.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>It was clean and pretty quiet.  The beds we very comfortable and the bathroom clean.  Lighting was poor in half of the room where the sofa bed was.  There was no lamps or lights in that area.  Breakfast was good with a good selection.  Coffee was very good but you had to wait till each cup was brewed.  Worth the wait.  Check in went fast as well as checkout.  My only problem was the keys.  My third night my key would not open the door.  Had to go back downstairs to get it re-keyed.  Went back to room door still would not unlock.  Back downstairs and that is when they noticed that they date of check-out is the computer was wrong.  Problem solved.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r529345120-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>529345120</t>
+  </si>
+  <si>
+    <t>10/02/2017</t>
+  </si>
+  <si>
+    <t>La Quinta Buss Stay</t>
+  </si>
+  <si>
+    <t>Great Hotel and Staff, If there are problems the staff will correct them if at all possible. Staff are very friendly. Good breakfast changes daily, nothing they have is allowed to stay empty. Clean outside not rundown. Good Area.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r509914479-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>509914479</t>
+  </si>
+  <si>
+    <t>08/07/2017</t>
+  </si>
+  <si>
+    <t>Excellent staff/great prices/clean rooms</t>
+  </si>
+  <si>
+    <t>this hotel is obviously well managed and maintained.  staff was very friendly and the room was comfortable and very clean.  the grounds were well lit and manicured. when back in the area i will stay at this location.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r482921184-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>482921184</t>
+  </si>
+  <si>
+    <t>05/09/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Underwhelmed </t>
+  </si>
+  <si>
+    <t>This is obviously not a high end hotel but I did expect the toilet to function however it was broken. These are simple things the housekeeper should have reported and had fixed before I checked in. Staff didn't seem too concerned about my inconvenience. I'm heading back to a Marriott property. MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>LQDEERPARKGM, Manager at La Quinta Inn &amp; Suites Deer Park, responded to this reviewResponded May 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 11, 2017</t>
+  </si>
+  <si>
+    <t>This is obviously not a high end hotel but I did expect the toilet to function however it was broken. These are simple things the housekeeper should have reported and had fixed before I checked in. Staff didn't seem too concerned about my inconvenience. I'm heading back to a Marriott property. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r463635141-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>463635141</t>
+  </si>
+  <si>
+    <t>02/28/2017</t>
+  </si>
+  <si>
+    <t>Clean, large rooms, pet friendly</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our dog for the San Jacinto Kennel Club dog show in La Porte.  The rooms were large, clean, and relatively quiet.  The breakfast was good, if not great, and the overall experience was very good.  Since we ended up on the 2nd floor and our dog had stomped around the room a couple of times we apologized on checkout for any troubles we caused the room below us.  That's when the manager at the front desk told us that we caused no problems because when they put dogs on the 2nd floor they always put them in rooms that are above conference rooms and therefore aren't used at night.  Also, all the dog people are put in adjacent rooms to minimize disturbance for the non-dog people in the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here with our dog for the San Jacinto Kennel Club dog show in La Porte.  The rooms were large, clean, and relatively quiet.  The breakfast was good, if not great, and the overall experience was very good.  Since we ended up on the 2nd floor and our dog had stomped around the room a couple of times we apologized on checkout for any troubles we caused the room below us.  That's when the manager at the front desk told us that we caused no problems because when they put dogs on the 2nd floor they always put them in rooms that are above conference rooms and therefore aren't used at night.  Also, all the dog people are put in adjacent rooms to minimize disturbance for the non-dog people in the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r462752344-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>462752344</t>
+  </si>
+  <si>
+    <t>02/25/2017</t>
+  </si>
+  <si>
+    <t>MoreShow less</t>
+  </si>
+  <si>
+    <t>More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r409943499-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>409943499</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Welcome home</t>
+  </si>
+  <si>
+    <t>The La Quinta in Deer Park is a very nice hotel and a great place to stay. Their from desk team Ashley, Amanda, Megan &amp; France are so helpful &amp; kind. They go out of their way for the guest. They make me feel I came home. The management team Sam &amp; Nicole are always doing the best they can to ensure their guests are comfortable. A special thank you to the cleaning ladies for the hard work they do. I work odd hours and they always fine the time to clean my room.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r406197739-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>406197739</t>
+  </si>
+  <si>
+    <t>08/16/2016</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sam and his staff go above and beyond to help my stay be a nice experience, never had a problem they could not resolve!!! The house keeping ladies accomodate to have my room clean at my convenience even if they have to stay a little bit after or come in before schedule!!! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r399293765-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>399293765</t>
+  </si>
+  <si>
+    <t>07/30/2016</t>
+  </si>
+  <si>
+    <t>We stayed here for the indoor pool.</t>
+  </si>
+  <si>
+    <t>We chose this pool for its indoor pool. It was supposed to be raining for the weekend and we wanted to make sure we could swim. The water in the Frio River in April is warmer than this pool is right now. After my 9 year old daughter went to the front desk to complain, the general manager came in to see for himself. He told my mother that the thermostat was set in 80 and it was normally kept at 80-85 degrees in the pool. Then he turned the thermostat up to 90 and opened one of the external Windows 'to warm up the pool.' He was also going to 'contact his pool guy.' Three hours later no change in pool temp. The room was too hot and humid. I shut the window and turned down the thermostat to the air conditioner. While typing this the temperature and humidity already dropped and the pool is still the same it was last night. 
+As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open,...We chose this pool for its indoor pool. It was supposed to be raining for the weekend and we wanted to make sure we could swim. The water in the Frio River in April is warmer than this pool is right now. After my 9 year old daughter went to the front desk to complain, the general manager came in to see for himself. He told my mother that the thermostat was set in 80 and it was normally kept at 80-85 degrees in the pool. Then he turned the thermostat up to 90 and opened one of the external Windows 'to warm up the pool.' He was also going to 'contact his pool guy.' Three hours later no change in pool temp. The room was too hot and humid. I shut the window and turned down the thermostat to the air conditioner. While typing this the temperature and humidity already dropped and the pool is still the same it was last night. As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open, the door to the parking lot barely shuts behind you. If you try to re-enter from the outside the door light turns green but it doesn't unlock. You have to walk around the building to enter. The bed is not the best and the pillows are yucky. The rooms are cleaned very well and the lady at the front desk was very helpful the pool problem.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>We chose this pool for its indoor pool. It was supposed to be raining for the weekend and we wanted to make sure we could swim. The water in the Frio River in April is warmer than this pool is right now. After my 9 year old daughter went to the front desk to complain, the general manager came in to see for himself. He told my mother that the thermostat was set in 80 and it was normally kept at 80-85 degrees in the pool. Then he turned the thermostat up to 90 and opened one of the external Windows 'to warm up the pool.' He was also going to 'contact his pool guy.' Three hours later no change in pool temp. The room was too hot and humid. I shut the window and turned down the thermostat to the air conditioner. While typing this the temperature and humidity already dropped and the pool is still the same it was last night. 
+As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open,...We chose this pool for its indoor pool. It was supposed to be raining for the weekend and we wanted to make sure we could swim. The water in the Frio River in April is warmer than this pool is right now. After my 9 year old daughter went to the front desk to complain, the general manager came in to see for himself. He told my mother that the thermostat was set in 80 and it was normally kept at 80-85 degrees in the pool. Then he turned the thermostat up to 90 and opened one of the external Windows 'to warm up the pool.' He was also going to 'contact his pool guy.' Three hours later no change in pool temp. The room was too hot and humid. I shut the window and turned down the thermostat to the air conditioner. While typing this the temperature and humidity already dropped and the pool is still the same it was last night. As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open, the door to the parking lot barely shuts behind you. If you try to re-enter from the outside the door light turns green but it doesn't unlock. You have to walk around the building to enter. The bed is not the best and the pillows are yucky. The rooms are cleaned very well and the lady at the front desk was very helpful the pool problem.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r384677921-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>384677921</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Not impressed.</t>
+  </si>
+  <si>
+    <t>The room was located on the third floor. Internet reception was virtually nonexistent until you stepped into the bathroom where it then became sketchy at best.  The smoke alarm battery died around 1:30 AM  and children began to  run up and down the hallways promptly Sunday morning at 7:15 AM. .</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r374813472-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>374813472</t>
+  </si>
+  <si>
+    <t>05/20/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Don't recommend </t>
+  </si>
+  <si>
+    <t xml:space="preserve">First night was ok.  The next night we had to get a replacement key (lost key) and they didn't ask for any format of ID or proof that we actually hotel guests or asking for the correct room key, and we also noticed the side door (one requiring key access) was propped open around midnight. We asked the night staff if that was policy and received a big attitude about it. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r368630059-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>368630059</t>
+  </si>
+  <si>
+    <t>04/25/2016</t>
+  </si>
+  <si>
+    <t>Great Hotel</t>
+  </si>
+  <si>
+    <t>I enjoy staying at this hotel because it is very clean and when I travel with my dog, they are pet friendly.  This time I only stayed one night.  I rented three rooms for the night and all three were just as I requested and on the same floor.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r356468941-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>356468941</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Good hotel for business</t>
+  </si>
+  <si>
+    <t>Hotel is clean, well-maintained, and well-run.  Hotel is close to many industrial plants, the USS Texas battleship, and the San Jacinto Monument.  The staff was efficient and friendly and the room was quiet.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r343470763-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>343470763</t>
+  </si>
+  <si>
+    <t>01/27/2016</t>
+  </si>
+  <si>
+    <t>Over Priced</t>
+  </si>
+  <si>
+    <t>The only good thing to say about this hotel is their breakfast is really good.  The shower was broke.  The fitness center is a joke.  The staff was helpful.  $124 a night seems ridiculous for the quality.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r343470888-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>343470888</t>
+  </si>
+  <si>
+    <t>01/22/2016</t>
+  </si>
+  <si>
+    <t>Nice Quiet hotel away from Houston</t>
+  </si>
+  <si>
+    <t>This LaQuinta was new, clean, safe, and away from the hustle and bustle of Houston!  I liked it because it was by itself kind of like in a rural setting! Even though DEER PARK has millions of refineries this hotel was not among them!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r294294240-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>294294240</t>
+  </si>
+  <si>
+    <t>07/24/2015</t>
+  </si>
+  <si>
+    <t>Great Vacation stay</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new with nice appeal. The indoor pool is nice, however I was not able to find the controls for the hot tub.  As for our room I felt it met our expectations for a hotel room, I feel the beds were not as comfortable as most other LQ hotels I have stayed in, but met their purpose. I would have liked to see an extra set of sheets and pillows for the sofa in our room. The morning breakfast was good, the usual waffles, biscuits and gravy as well as eggs. I would have liked if they switched it up each day but can complain about free food. I would stay here again, If you are cruising out of the Galveston area and need a nice quiet place that's clean, this is a great hotel at a reasonable rate.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>This hotel is fairly new with nice appeal. The indoor pool is nice, however I was not able to find the controls for the hot tub.  As for our room I felt it met our expectations for a hotel room, I feel the beds were not as comfortable as most other LQ hotels I have stayed in, but met their purpose. I would have liked to see an extra set of sheets and pillows for the sofa in our room. The morning breakfast was good, the usual waffles, biscuits and gravy as well as eggs. I would have liked if they switched it up each day but can complain about free food. I would stay here again, If you are cruising out of the Galveston area and need a nice quiet place that's clean, this is a great hotel at a reasonable rate.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r289730881-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>289730881</t>
+  </si>
+  <si>
+    <t>07/11/2015</t>
+  </si>
+  <si>
+    <t>a find in Houston area</t>
+  </si>
+  <si>
+    <t>great motel  we have stayed here prior to two cruises now and enjoyed this motel   the staff is fantastic and very helpful. The rooms are large and nicely kept. The bathroom is clean and well maintained.  The breakfast is one of the best we have enjoyed in our travels.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r286220810-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>286220810</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>Faboulous Stay At A Wonderful Location</t>
+  </si>
+  <si>
+    <t>The General Manager Sheila Daniels was Very Respectful, Courteous, Kind and Resourceful.  She made sure that the room was acceptable and informed us if there was anything that she could do, do not hesitate to ask.  Ms. Daniels has excellent Customer Service she is a Great Asset to your Company. We were Newly Weds and we were very satisfied.  We will continue to use this Hotel when we are in the area just because of the Excellent Service we received from Ms Daniels and her staff. I would recommend this Hotel to Anyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r277138700-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>277138700</t>
+  </si>
+  <si>
+    <t>06/01/2015</t>
+  </si>
+  <si>
+    <t>Awesome Stay!</t>
+  </si>
+  <si>
+    <t>We had a great stay!  The front desk attendant at check-in was awesome!  She was helpful and knowledgeable! The room was comfortable and quiet! The location is great!  Easy access to sight-seeing activities and business centers!  Only one complaint - the maids knock on the doors the morning of check-out asking for dirty linens way before check-out time.  They knocked on our door at 10:30 am, when check-out was at 12 pm.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r273739936-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>273739936</t>
+  </si>
+  <si>
+    <t>05/20/2015</t>
+  </si>
+  <si>
+    <t>Overnight visit with family</t>
+  </si>
+  <si>
+    <t>Very clean friendly staff. perfect for our needs,  we made a quick overnight to visit family and to lessen the house full of folks picked LaQuinta for our stay. Convenient location, quick access to area locations.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r271235263-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>271235263</t>
+  </si>
+  <si>
+    <t>05/10/2015</t>
+  </si>
+  <si>
+    <t>Good place to stay</t>
+  </si>
+  <si>
+    <t>Stayed here with a team. Very good rate. Rooms were huge. Nothing fancy by any means, but plenty of room. they were clean, which is important and something I definetly look for. Everyone was pleasant. Pool closes at 11, giving the team plenty of time to relax after a long day. Employee came in to let them know they had 15 minutes and gave them a little extra. (It's those little things) Breakfast was a typical LQ bfast, nothing fancy, but will get you going. Would definetly stay again if in the area.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r259340295-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>259340295</t>
+  </si>
+  <si>
+    <t>03/13/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel and close to cruise port</t>
+  </si>
+  <si>
+    <t>We stayed here two nights before getting on our cruise out of the cruise port in Pasadena, Texas. It was very close and convenient.  The hotel was clean and room was spacious.  Nice bathroom and quiet room.  It was close to a Walgreens, dollar store, liquor stores, etc.  Nice area too.  The staff was not overly friendly but answered any questions we had or needs.  Breakfast was typical but well stocked.  Only drawback was that there were quite a few dogs.  We never heard them though and they were not in eating area.  Ate at Antonio's - you have to eat there if you like Italian food.  Best restaurant I have been to!  We noticed there were always a couple people loitering outside the front entrance.  Not sure if they worked there, visiting workers there or just hanging out.  Just seemed a little strange.  It was a nice hotel overall.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>We stayed here two nights before getting on our cruise out of the cruise port in Pasadena, Texas. It was very close and convenient.  The hotel was clean and room was spacious.  Nice bathroom and quiet room.  It was close to a Walgreens, dollar store, liquor stores, etc.  Nice area too.  The staff was not overly friendly but answered any questions we had or needs.  Breakfast was typical but well stocked.  Only drawback was that there were quite a few dogs.  We never heard them though and they were not in eating area.  Ate at Antonio's - you have to eat there if you like Italian food.  Best restaurant I have been to!  We noticed there were always a couple people loitering outside the front entrance.  Not sure if they worked there, visiting workers there or just hanging out.  Just seemed a little strange.  It was a nice hotel overall.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r259307727-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>259307727</t>
+  </si>
+  <si>
+    <t>Great place to stay with the family</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Great hotel. The staff was friendly and the rooms were clean. If you have a young family this hotel is great. There's a fridge and microwave in the rooms. TV has kid friendly channels (disney, nick) and there's an indoor pool. Kemah Boardwalk is close by as well as the San Jacinto Monument. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r257028838-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>257028838</t>
+  </si>
+  <si>
+    <t>02/28/2015</t>
+  </si>
+  <si>
+    <t>3 nights in Deer Park</t>
+  </si>
+  <si>
+    <t>Slept well; average accommodations.  Front desk folks were very friendly and helpful, as were the house-keepers.  Wish the room would have had an extra blanket and USB ports, but having brought our own, we were fine.  We also brought an extension cord b/c we knew we'd have several computers running and didn't want to be arguing over access to the electric outlets.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r242833986-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>242833986</t>
+  </si>
+  <si>
+    <t>12/03/2014</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r239658125-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>239658125</t>
+  </si>
+  <si>
+    <t>11/13/2014</t>
+  </si>
+  <si>
+    <t>Great stay!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Best La Quinta we have been too. Very clean! Hotel has 3 floors with a elevator.  Nice clean large rooms!! Good selection at breakfast. Quiet hotel. We stayed on the 3rd floor. I would definitely stay again if I'm ever in the area! </t>
+  </si>
+  <si>
+    <t>November 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r239535519-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>239535519</t>
+  </si>
+  <si>
+    <t>11/12/2014</t>
+  </si>
+  <si>
+    <t>Excellent Customer Service</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will...My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will be having a follow up appointment next week and are planning to stay at your location on Nov 18th for 1 night so we won't have to make a round trip that same day to/from home.Kindest Regards,Michael P. Este ( H053993284  Rewards Member)MoreShow less</t>
+  </si>
+  <si>
+    <t>My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will...My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will be having a follow up appointment next week and are planning to stay at your location on Nov 18th for 1 night so we won't have to make a round trip that same day to/from home.Kindest Regards,Michael P. Este ( H053993284  Rewards Member)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r217698928-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>217698928</t>
+  </si>
+  <si>
+    <t>07/26/2014</t>
+  </si>
+  <si>
+    <t>Best sleep I've had at a hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed here for our family vacation.  We booked a double queen bed with a sofa bed.  We stayed 5 nights.  Our stay was excellent.  I usually don't sleep well when I stay at hotels but I overslept breakfast here!  Our kids enjoyed the pool at the hotel.  Also, the hotel was located close enough to the attractions we wanted to visit on our vacation.  The local eating places in deer park were great too!  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r214336585-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>214336585</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Lice!!!</t>
+  </si>
+  <si>
+    <t>At first I thought my stay there was just okay. The front desk seemed friendly enough, and the room appeared to be very clean. The bed was a little uncomfortable and there seemed to be a lot of noise just from people walking around in the room above me. For being a newer hotel, I'd have thought it would have been quieter. It wasn't worth the rate on those few issues alone, but I was in a pinch that since our AC went out in the middle of the night and I'm 6 months pregnant so I just let it be. Then about four days after my stay, my head started itching. I had a friend come check and sure enough I had lice. Being that I had not stayed anywhere else, had only been out of the house to get groceries, and both my husband and son have been out of town, there is no other place I could have gotten it. When I called the hotel, the manager said he would look into it, but that I couldn't have gotten it there because he's had no other complaints about the room and his staff changes all the linens every checkout. He was very rude and kept interrupting me when I was trying to talk to him. Obviously the linens on the bed I slept in had not been changed or had not been properly cleaned before being placed...At first I thought my stay there was just okay. The front desk seemed friendly enough, and the room appeared to be very clean. The bed was a little uncomfortable and there seemed to be a lot of noise just from people walking around in the room above me. For being a newer hotel, I'd have thought it would have been quieter. It wasn't worth the rate on those few issues alone, but I was in a pinch that since our AC went out in the middle of the night and I'm 6 months pregnant so I just let it be. Then about four days after my stay, my head started itching. I had a friend come check and sure enough I had lice. Being that I had not stayed anywhere else, had only been out of the house to get groceries, and both my husband and son have been out of town, there is no other place I could have gotten it. When I called the hotel, the manager said he would look into it, but that I couldn't have gotten it there because he's had no other complaints about the room and his staff changes all the linens every checkout. He was very rude and kept interrupting me when I was trying to talk to him. Obviously the linens on the bed I slept in had not been changed or had not been properly cleaned before being placed in the room. He said he would call Terminex, but that was the extent of his customer service. I called the customer service line and was told that they will just hand the issue back over to the property manager. Being a parent, I know how lice works. If the room has been changed out and the linens washed since I've stayed, they're most likely not going to find anything. I would very much like a refund since I'm now having to treat myself and my whole house, but the biggest issue is really the attitude the manager gave me when I called to complain.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>At first I thought my stay there was just okay. The front desk seemed friendly enough, and the room appeared to be very clean. The bed was a little uncomfortable and there seemed to be a lot of noise just from people walking around in the room above me. For being a newer hotel, I'd have thought it would have been quieter. It wasn't worth the rate on those few issues alone, but I was in a pinch that since our AC went out in the middle of the night and I'm 6 months pregnant so I just let it be. Then about four days after my stay, my head started itching. I had a friend come check and sure enough I had lice. Being that I had not stayed anywhere else, had only been out of the house to get groceries, and both my husband and son have been out of town, there is no other place I could have gotten it. When I called the hotel, the manager said he would look into it, but that I couldn't have gotten it there because he's had no other complaints about the room and his staff changes all the linens every checkout. He was very rude and kept interrupting me when I was trying to talk to him. Obviously the linens on the bed I slept in had not been changed or had not been properly cleaned before being placed...At first I thought my stay there was just okay. The front desk seemed friendly enough, and the room appeared to be very clean. The bed was a little uncomfortable and there seemed to be a lot of noise just from people walking around in the room above me. For being a newer hotel, I'd have thought it would have been quieter. It wasn't worth the rate on those few issues alone, but I was in a pinch that since our AC went out in the middle of the night and I'm 6 months pregnant so I just let it be. Then about four days after my stay, my head started itching. I had a friend come check and sure enough I had lice. Being that I had not stayed anywhere else, had only been out of the house to get groceries, and both my husband and son have been out of town, there is no other place I could have gotten it. When I called the hotel, the manager said he would look into it, but that I couldn't have gotten it there because he's had no other complaints about the room and his staff changes all the linens every checkout. He was very rude and kept interrupting me when I was trying to talk to him. Obviously the linens on the bed I slept in had not been changed or had not been properly cleaned before being placed in the room. He said he would call Terminex, but that was the extent of his customer service. I called the customer service line and was told that they will just hand the issue back over to the property manager. Being a parent, I know how lice works. If the room has been changed out and the linens washed since I've stayed, they're most likely not going to find anything. I would very much like a refund since I'm now having to treat myself and my whole house, but the biggest issue is really the attitude the manager gave me when I called to complain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r212449246-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>212449246</t>
+  </si>
+  <si>
+    <t>06/28/2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r199104989-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>199104989</t>
+  </si>
+  <si>
+    <t>03/28/2014</t>
+  </si>
+  <si>
+    <t>Best LaQuinta</t>
+  </si>
+  <si>
+    <t>This is a GREAT place to stay.  Management/staff is friendly, helpful and on-task.  The whole facility is fresh, clean and beautiful.  The breakfast was impressive and roomy.  Some LaQuinta's have a cramped breakfast area but not this location.  It was amazing.  I can't say enough about this location.</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r197666552-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>197666552</t>
+  </si>
+  <si>
+    <t>03/16/2014</t>
+  </si>
+  <si>
+    <t>Relaxed atmosphere</t>
+  </si>
+  <si>
+    <t>Hotel amenities best I know! when I come here! My mood is not good, but I felt comfortable, while the hotel service care for me! Amazing! many other ones, both in the hotel pool! staff very friendly and great! services here tooo  . I love this hotel!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r197579219-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>197579219</t>
+  </si>
+  <si>
+    <t>amazing</t>
+  </si>
+  <si>
+    <t>Ive stayed at a lot of hotels, this one by far is one of the best. It is clean, quiet and the free basket is delicious. The staff is helpful and wonderful. It is in.a great location given access to many different attractions. I will definitely return back here</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r188300211-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>188300211</t>
+  </si>
+  <si>
+    <t>12/22/2013</t>
+  </si>
+  <si>
+    <t>Nice Property</t>
+  </si>
+  <si>
+    <t>We stayed due to the location and found it to be very nice. The reception was very good, the room clean, large and quiet. Breakfast was fresh and plentiful.All the staff seemed eager to please and took pride in the property. This is a non-smoking property.</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r184149218-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>184149218</t>
+  </si>
+  <si>
+    <t>11/09/2013</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r173788770-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>173788770</t>
+  </si>
+  <si>
+    <t>08/24/2013</t>
+  </si>
+  <si>
+    <t>Good location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed here after my usual spot was full.   Nice place with clean everything.  A little on the pricey side but worth it.  Deer park is a nice are just off the interstate on a less populated road. Got a good seafood restaurant just a block down the road.  </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r159994379-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>159994379</t>
+  </si>
+  <si>
+    <t>05/07/2013</t>
+  </si>
+  <si>
+    <t>Always an Excellent Choice</t>
+  </si>
+  <si>
+    <t>With numerous hotels in the area this La Quinta is an excellent choice. The staff is very friendly and helpful.The property is very clean and the location is great. The rooms are very spacious with everything you could need. The laundry room and business center were always available.I am a smoker so i like the outdoor area with benches for smokers! Check in and Check out is speedy and very pleasant. I also enjoyed the breakfast area as well as the great selection. I will continue to stay at this location every time im in town for business.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r156490183-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>156490183</t>
+  </si>
+  <si>
+    <t>04/03/2013</t>
+  </si>
+  <si>
+    <t>They had my reservation and we were in the room in a few minutes.  I was traveling with my sister and my little 5 lb. Pomeranian and it was no problem. You do have to sign a paper for your dog in case they mess up the room.  The room was clean, the bathroom clean and we were able to get on the internet.  We had plenty of room and did not need to ask for any extras.  I highly recommend this hotel.  The service was superior.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r156248241-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>156248241</t>
+  </si>
+  <si>
+    <t>04/01/2013</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r152265847-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>152265847</t>
+  </si>
+  <si>
+    <t>02/16/2013</t>
+  </si>
+  <si>
+    <t>Pleasant Experience</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We arrived at 9 pm, tired from a day of traveling/visiting, so the quick check-in got us in the comfortable room where we could relax and unwind on the couch in the roomy sitting area.  Several restaurants,  fast food establishments, and a Walmart were nearby, although the hotel is located in a quiet, well lit area not a mile away.  </t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r148042571-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>148042571</t>
+  </si>
+  <si>
+    <t>12/25/2012</t>
+  </si>
+  <si>
+    <t>Clean, quiet and friendly close to our kids</t>
+  </si>
+  <si>
+    <t>We stayed at the Deer Park LaQuinta while visiting our kids prior for Xmas. The hotel is located about 5 min from thier house so the location is great. we choose this LQ over several other places nearby as it is always clean, quiet and reasonably priced.</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r144806994-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>144806994</t>
+  </si>
+  <si>
+    <t>11/06/2012</t>
+  </si>
+  <si>
+    <t>Love the friendly staff!!!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am always greeted with the friendly front desk and love the breakfast in the mornings. Hotel is clean and very tidy. A non smoking is a definite plus and the beds are very comfortable. My definite Go To  place in Deer Park </t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r141035252-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>141035252</t>
+  </si>
+  <si>
+    <t>09/23/2012</t>
+  </si>
+  <si>
+    <t>Greatest Stay</t>
+  </si>
+  <si>
+    <t>Loved it my husband and I got the room with the jetted bath it was way more then what I expected the room was huge the jetted bath felt wonderful great night sleep and wonderful breakfast and staff was nice friendly very fast check in and checkout was very quiet overalll will be booking this hotel from now on .</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r135957276-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>135957276</t>
+  </si>
+  <si>
+    <t>08/01/2012</t>
+  </si>
+  <si>
+    <t>Second stay here and each has been outstanding!</t>
+  </si>
+  <si>
+    <t>Arrived a little bit early but the room was ready.  TV remote did not work but was corrected promptly.  Front desk staff was outgoing and friendly for my two day stay.  Hotel is located close to major travel roads but far enough away so it is a quiet little gem.  Breakfast was ample and inviting.  Plug and play flat screens are great!</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r135709712-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>135709712</t>
+  </si>
+  <si>
+    <t>07/29/2012</t>
+  </si>
+  <si>
+    <t>First time to Texas</t>
+  </si>
+  <si>
+    <t>This was our first trip ever to Texas and first stay with LaQuinta   The stay was great and beds are comfortable. 5 stars to the hotel staff  Lupe,Hannah, Nicole ,Helen and the general manager Sam   Great stay great hotel great Staff! The staff was more than helpful with restaurant recommendations , sending us to great attraction sights. Keep up the good work deer park, Danielle Garcia and Joe smith , Tampa , florida</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r130824345-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>130824345</t>
+  </si>
+  <si>
+    <t>05/28/2012</t>
+  </si>
+  <si>
+    <t>Excellent stay</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel for a softball tournament in Deer Park..I just wanted to say that this hotel had the most wonderful , friendly staff and housekeeping.  The rooms were really , really clean and we would stay again.</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r130018572-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>130018572</t>
+  </si>
+  <si>
+    <t>05/15/2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r128553944-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>128553944</t>
+  </si>
+  <si>
+    <t>04/24/2012</t>
+  </si>
+  <si>
+    <t>perfect stay!</t>
+  </si>
+  <si>
+    <t>staff was great and helpful.   Indool pool was the best my kids enjoyed it both days. Breakfast was great too hot waffle and scramble egg and sausage. We recommand this hotel to our families and friends.</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r122066311-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>122066311</t>
+  </si>
+  <si>
+    <t>12/24/2011</t>
+  </si>
+  <si>
+    <t>Super clean</t>
+  </si>
+  <si>
+    <t>Large rooms are nice for multiple night staysLarge tv and storage areasBig bathroomsOff the beaten path so not a lot of noise</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r117049760-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>117049760</t>
+  </si>
+  <si>
+    <t>08/21/2011</t>
+  </si>
+  <si>
+    <t>Don't plan on using the pool!</t>
+  </si>
+  <si>
+    <t>We went on this trip to visit some family for a wedding and stayed in the La Quinta since it was close to Family and the location of the event. The room was okay - nothing extraordinary, just your typical room. The breakfast was okay as well (it did have one of those "make your own waffles", so that was nice)! My children wanted to go to the pool, so we headed down there. It was empty, but we soon found out why - it was DISGUSTING!! The bottom of the pool had all kinds of black stuff in it as well as a tumbleweed size hairball! GROSS! I talked to the front desk person who told me that the pool gets cleaned on Monday, so if there are a lot of people in the pool during the week it sometimes gets yucky before it gets cleaned again on Monday...you won't be finding our family in that pool!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2011</t>
+  </si>
+  <si>
+    <t>We went on this trip to visit some family for a wedding and stayed in the La Quinta since it was close to Family and the location of the event. The room was okay - nothing extraordinary, just your typical room. The breakfast was okay as well (it did have one of those "make your own waffles", so that was nice)! My children wanted to go to the pool, so we headed down there. It was empty, but we soon found out why - it was DISGUSTING!! The bottom of the pool had all kinds of black stuff in it as well as a tumbleweed size hairball! GROSS! I talked to the front desk person who told me that the pool gets cleaned on Monday, so if there are a lot of people in the pool during the week it sometimes gets yucky before it gets cleaned again on Monday...you won't be finding our family in that pool!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r77267501-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>77267501</t>
+  </si>
+  <si>
+    <t>08/28/2010</t>
+  </si>
+  <si>
+    <t>Newer Hotel, OK right now</t>
+  </si>
+  <si>
+    <t>Rooms, goodBreakfast, poor, not a lot of choice if you want to eat healthy. Eggs that don't taste like eggs at all.Security???, seldom seemed to see anyone at the front deskNo restaurants in the area at all, plan on having to drive a ways to eat supper</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r29940936-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>29940936</t>
+  </si>
+  <si>
+    <t>05/13/2009</t>
+  </si>
+  <si>
+    <t>Wish I could have relaxed longer...</t>
+  </si>
+  <si>
+    <t>Deer Park is not exactly known for it's fine ammenities, but this hotel was a very pleasant surprise.  It is less than a year old, has a great pool and workout facility, and the rooms are spacious, clean and inviting.  They took attention in the small details and it paid off.  I would recommend this hotel to anyone staying in the area!</t>
+  </si>
+  <si>
+    <t>May 2009</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1536,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1568,3829 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I1" t="s">
+        <v>26</v>
+      </c>
+      <c r="J1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L1" t="s">
+        <v>29</v>
+      </c>
+      <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>34</v>
+      </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>37</v>
+      </c>
+      <c r="U1" t="s">
+        <v>38</v>
+      </c>
+      <c r="V1" t="s">
+        <v>39</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="X1" t="s">
+        <v>41</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
+        <v>47</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>43</v>
+      </c>
+      <c r="F3" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" t="s">
+        <v>55</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>57</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" t="s">
+        <v>52</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>5</v>
+      </c>
+      <c r="R3" t="n">
+        <v>5</v>
+      </c>
+      <c r="S3" t="n">
+        <v>5</v>
+      </c>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>59</v>
+      </c>
+      <c r="J4" t="s">
+        <v>60</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="s">
+        <v>63</v>
+      </c>
+      <c r="O4" t="s">
+        <v>64</v>
+      </c>
+      <c r="P4" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>4</v>
+      </c>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="n">
+        <v>4</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>2</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>66</v>
+      </c>
+      <c r="J5" t="s">
+        <v>67</v>
+      </c>
+      <c r="K5" t="s">
+        <v>68</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" t="s">
+        <v>52</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>71</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>73</v>
+      </c>
+      <c r="K6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L6" t="s">
+        <v>75</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>70</v>
+      </c>
+      <c r="O6" t="s">
+        <v>64</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" t="s">
+        <v>76</v>
+      </c>
+      <c r="G7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" t="s">
+        <v>77</v>
+      </c>
+      <c r="J7" t="s">
+        <v>78</v>
+      </c>
+      <c r="K7" t="s"/>
+      <c r="L7" t="s"/>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>79</v>
+      </c>
+      <c r="O7" t="s">
+        <v>52</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F8" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
+      </c>
+      <c r="H8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I8" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>85</v>
+      </c>
+      <c r="O8" t="s">
+        <v>52</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="s"/>
+      <c r="S8" t="n">
+        <v>4</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" t="s">
+        <v>45</v>
+      </c>
+      <c r="H9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I9" t="s">
+        <v>88</v>
+      </c>
+      <c r="J9" t="s">
+        <v>89</v>
+      </c>
+      <c r="K9" t="s">
+        <v>90</v>
+      </c>
+      <c r="L9" t="s">
+        <v>91</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>92</v>
+      </c>
+      <c r="O9" t="s">
+        <v>52</v>
+      </c>
+      <c r="P9" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>43</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>94</v>
+      </c>
+      <c r="J10" t="s">
+        <v>95</v>
+      </c>
+      <c r="K10" t="s">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>98</v>
+      </c>
+      <c r="O10" t="s">
+        <v>52</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" t="s">
+        <v>99</v>
+      </c>
+      <c r="G11" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" t="s">
+        <v>100</v>
+      </c>
+      <c r="J11" t="s">
+        <v>101</v>
+      </c>
+      <c r="K11" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" t="s">
+        <v>103</v>
+      </c>
+      <c r="M11" t="n">
+        <v>1</v>
+      </c>
+      <c r="N11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O11" t="s">
+        <v>105</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>106</v>
+      </c>
+      <c r="X11" t="s">
+        <v>107</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" t="s">
+        <v>109</v>
+      </c>
+      <c r="G12" t="s">
+        <v>45</v>
+      </c>
+      <c r="H12" t="s">
+        <v>46</v>
+      </c>
+      <c r="I12" t="s">
+        <v>110</v>
+      </c>
+      <c r="J12" t="s">
+        <v>111</v>
+      </c>
+      <c r="K12" t="s">
+        <v>112</v>
+      </c>
+      <c r="L12" t="s">
+        <v>113</v>
+      </c>
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
+        <v>114</v>
+      </c>
+      <c r="O12" t="s">
+        <v>105</v>
+      </c>
+      <c r="P12" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>4</v>
+      </c>
+      <c r="R12" t="n">
+        <v>4</v>
+      </c>
+      <c r="S12" t="n">
+        <v>4</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>4</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" t="s">
+        <v>45</v>
+      </c>
+      <c r="H13" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" t="s">
+        <v>117</v>
+      </c>
+      <c r="J13" t="s">
+        <v>118</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s">
+        <v>119</v>
+      </c>
+      <c r="M13" t="n">
+        <v>5</v>
+      </c>
+      <c r="N13" t="s">
+        <v>114</v>
+      </c>
+      <c r="O13" t="s">
+        <v>105</v>
+      </c>
+      <c r="P13" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>5</v>
+      </c>
+      <c r="R13" t="n">
+        <v>5</v>
+      </c>
+      <c r="S13" t="n">
+        <v>5</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" t="s">
+        <v>46</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>52</v>
+      </c>
+      <c r="P14" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="n">
+        <v>5</v>
+      </c>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>45</v>
+      </c>
+      <c r="H15" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>52</v>
+      </c>
+      <c r="P15" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>43</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>3</v>
+      </c>
+      <c r="N16" t="s">
+        <v>137</v>
+      </c>
+      <c r="O16" t="s">
+        <v>105</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>43</v>
+      </c>
+      <c r="F17" t="s">
+        <v>139</v>
+      </c>
+      <c r="G17" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" t="s">
+        <v>46</v>
+      </c>
+      <c r="I17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" t="s">
+        <v>141</v>
+      </c>
+      <c r="K17" t="s">
+        <v>142</v>
+      </c>
+      <c r="L17" t="s">
+        <v>143</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>144</v>
+      </c>
+      <c r="O17" t="s">
+        <v>64</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>3</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>3</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>3</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F18" t="s">
+        <v>145</v>
+      </c>
+      <c r="G18" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
+      </c>
+      <c r="I18" t="s">
+        <v>146</v>
+      </c>
+      <c r="J18" t="s">
+        <v>147</v>
+      </c>
+      <c r="K18" t="s">
+        <v>148</v>
+      </c>
+      <c r="L18" t="s">
+        <v>149</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>150</v>
+      </c>
+      <c r="O18" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" t="s">
+        <v>151</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>152</v>
+      </c>
+      <c r="J19" t="s">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s">
+        <v>154</v>
+      </c>
+      <c r="L19" t="s">
+        <v>155</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>156</v>
+      </c>
+      <c r="O19" t="s">
+        <v>105</v>
+      </c>
+      <c r="P19" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>43</v>
+      </c>
+      <c r="F20" t="s">
+        <v>157</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>158</v>
+      </c>
+      <c r="J20" t="s">
+        <v>159</v>
+      </c>
+      <c r="K20" t="s">
+        <v>160</v>
+      </c>
+      <c r="L20" t="s">
+        <v>161</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>162</v>
+      </c>
+      <c r="O20" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>4</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>5</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" t="s">
+        <v>163</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>164</v>
+      </c>
+      <c r="J21" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" t="s">
+        <v>166</v>
+      </c>
+      <c r="L21" t="s">
+        <v>167</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>168</v>
+      </c>
+      <c r="O21" t="s">
+        <v>52</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>4</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>3</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>43</v>
+      </c>
+      <c r="F22" t="s">
+        <v>169</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>170</v>
+      </c>
+      <c r="J22" t="s">
+        <v>171</v>
+      </c>
+      <c r="K22" t="s">
+        <v>172</v>
+      </c>
+      <c r="L22" t="s">
+        <v>173</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>168</v>
+      </c>
+      <c r="O22" t="s">
+        <v>174</v>
+      </c>
+      <c r="P22" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="n">
+        <v>5</v>
+      </c>
+      <c r="S22" t="n">
+        <v>5</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" t="s">
+        <v>175</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>176</v>
+      </c>
+      <c r="J23" t="s">
+        <v>177</v>
+      </c>
+      <c r="K23" t="s">
+        <v>178</v>
+      </c>
+      <c r="L23" t="s">
+        <v>179</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>180</v>
+      </c>
+      <c r="O23" t="s">
+        <v>105</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>4</v>
+      </c>
+      <c r="R23" t="n">
+        <v>4</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>43</v>
+      </c>
+      <c r="F24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" t="s">
+        <v>45</v>
+      </c>
+      <c r="H24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I24" t="s">
+        <v>183</v>
+      </c>
+      <c r="J24" t="s">
+        <v>184</v>
+      </c>
+      <c r="K24" t="s">
+        <v>185</v>
+      </c>
+      <c r="L24" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>180</v>
+      </c>
+      <c r="O24" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="n">
+        <v>5</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" t="s">
+        <v>187</v>
+      </c>
+      <c r="G25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H25" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" t="s">
+        <v>189</v>
+      </c>
+      <c r="K25" t="s">
+        <v>190</v>
+      </c>
+      <c r="L25" t="s">
+        <v>191</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>180</v>
+      </c>
+      <c r="O25" t="s">
+        <v>174</v>
+      </c>
+      <c r="P25" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>43</v>
+      </c>
+      <c r="F26" t="s">
+        <v>192</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>193</v>
+      </c>
+      <c r="J26" t="s">
+        <v>194</v>
+      </c>
+      <c r="K26" t="s">
+        <v>195</v>
+      </c>
+      <c r="L26" t="s">
+        <v>196</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>197</v>
+      </c>
+      <c r="O26" t="s">
+        <v>52</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>43</v>
+      </c>
+      <c r="F27" t="s">
+        <v>198</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>199</v>
+      </c>
+      <c r="J27" t="s">
+        <v>200</v>
+      </c>
+      <c r="K27" t="s">
+        <v>201</v>
+      </c>
+      <c r="L27" t="s">
+        <v>202</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>197</v>
+      </c>
+      <c r="O27" t="s">
+        <v>105</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F28" t="s">
+        <v>203</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>204</v>
+      </c>
+      <c r="J28" t="s">
+        <v>205</v>
+      </c>
+      <c r="K28" t="s">
+        <v>206</v>
+      </c>
+      <c r="L28" t="s">
+        <v>207</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>197</v>
+      </c>
+      <c r="O28" t="s">
+        <v>52</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="s"/>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>43</v>
+      </c>
+      <c r="F29" t="s">
+        <v>208</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J29" t="s">
+        <v>210</v>
+      </c>
+      <c r="K29" t="s">
+        <v>211</v>
+      </c>
+      <c r="L29" t="s">
+        <v>212</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>213</v>
+      </c>
+      <c r="O29" t="s">
+        <v>174</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>43</v>
+      </c>
+      <c r="F30" t="s">
+        <v>215</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>210</v>
+      </c>
+      <c r="K30" t="s">
+        <v>217</v>
+      </c>
+      <c r="L30" t="s">
+        <v>218</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s"/>
+      <c r="O30" t="s"/>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>43</v>
+      </c>
+      <c r="F31" t="s">
+        <v>219</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
+      </c>
+      <c r="J31" t="s">
+        <v>221</v>
+      </c>
+      <c r="K31" t="s">
+        <v>222</v>
+      </c>
+      <c r="L31" t="s">
+        <v>223</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+      <c r="O31" t="s">
+        <v>52</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>3</v>
+      </c>
+      <c r="R31" t="n">
+        <v>3</v>
+      </c>
+      <c r="S31" t="n">
+        <v>3</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
+        <v>226</v>
+      </c>
+      <c r="J32" t="s">
+        <v>227</v>
+      </c>
+      <c r="K32" t="s"/>
+      <c r="L32" t="s"/>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>228</v>
+      </c>
+      <c r="O32" t="s">
+        <v>52</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>43</v>
+      </c>
+      <c r="F33" t="s">
+        <v>229</v>
+      </c>
+      <c r="G33" t="s">
+        <v>45</v>
+      </c>
+      <c r="H33" t="s">
+        <v>46</v>
+      </c>
+      <c r="I33" t="s">
+        <v>230</v>
+      </c>
+      <c r="J33" t="s">
+        <v>231</v>
+      </c>
+      <c r="K33" t="s">
+        <v>232</v>
+      </c>
+      <c r="L33" t="s">
+        <v>233</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
+        <v>234</v>
+      </c>
+      <c r="O33" t="s">
+        <v>174</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="s"/>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>43</v>
+      </c>
+      <c r="F34" t="s">
+        <v>235</v>
+      </c>
+      <c r="G34" t="s">
+        <v>45</v>
+      </c>
+      <c r="H34" t="s">
+        <v>46</v>
+      </c>
+      <c r="I34" t="s">
+        <v>236</v>
+      </c>
+      <c r="J34" t="s">
+        <v>237</v>
+      </c>
+      <c r="K34" t="s">
+        <v>238</v>
+      </c>
+      <c r="L34" t="s">
+        <v>239</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>234</v>
+      </c>
+      <c r="O34" t="s">
+        <v>105</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>5</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>43</v>
+      </c>
+      <c r="F35" t="s">
+        <v>241</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
+        <v>242</v>
+      </c>
+      <c r="J35" t="s">
+        <v>243</v>
+      </c>
+      <c r="K35" t="s">
+        <v>244</v>
+      </c>
+      <c r="L35" t="s">
+        <v>245</v>
+      </c>
+      <c r="M35" t="n">
+        <v>5</v>
+      </c>
+      <c r="N35" t="s"/>
+      <c r="O35" t="s"/>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" t="s">
+        <v>246</v>
+      </c>
+      <c r="G36" t="s">
+        <v>45</v>
+      </c>
+      <c r="H36" t="s">
+        <v>46</v>
+      </c>
+      <c r="I36" t="s">
+        <v>247</v>
+      </c>
+      <c r="J36" t="s">
+        <v>248</v>
+      </c>
+      <c r="K36" t="s">
+        <v>249</v>
+      </c>
+      <c r="L36" t="s">
+        <v>250</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="s">
+        <v>251</v>
+      </c>
+      <c r="O36" t="s">
+        <v>64</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="n">
+        <v>1</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>43</v>
+      </c>
+      <c r="F37" t="s">
+        <v>253</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>254</v>
+      </c>
+      <c r="J37" t="s">
+        <v>255</v>
+      </c>
+      <c r="K37" t="s"/>
+      <c r="L37" t="s"/>
+      <c r="M37" t="n">
+        <v>4</v>
+      </c>
+      <c r="N37" t="s">
+        <v>251</v>
+      </c>
+      <c r="O37" t="s">
+        <v>105</v>
+      </c>
+      <c r="P37" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>4</v>
+      </c>
+      <c r="R37" t="n">
+        <v>4</v>
+      </c>
+      <c r="S37" t="n">
+        <v>4</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>3</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>43</v>
+      </c>
+      <c r="F38" t="s">
+        <v>256</v>
+      </c>
+      <c r="G38" t="s">
+        <v>45</v>
+      </c>
+      <c r="H38" t="s">
+        <v>46</v>
+      </c>
+      <c r="I38" t="s">
+        <v>257</v>
+      </c>
+      <c r="J38" t="s">
+        <v>258</v>
+      </c>
+      <c r="K38" t="s">
+        <v>259</v>
+      </c>
+      <c r="L38" t="s">
+        <v>260</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>261</v>
+      </c>
+      <c r="O38" t="s">
+        <v>52</v>
+      </c>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>43</v>
+      </c>
+      <c r="F39" t="s">
+        <v>262</v>
+      </c>
+      <c r="G39" t="s">
+        <v>45</v>
+      </c>
+      <c r="H39" t="s">
+        <v>46</v>
+      </c>
+      <c r="I39" t="s">
+        <v>263</v>
+      </c>
+      <c r="J39" t="s">
+        <v>264</v>
+      </c>
+      <c r="K39" t="s">
+        <v>265</v>
+      </c>
+      <c r="L39" t="s">
+        <v>266</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>267</v>
+      </c>
+      <c r="O39" t="s">
+        <v>52</v>
+      </c>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>4</v>
+      </c>
+      <c r="R39" t="n">
+        <v>4</v>
+      </c>
+      <c r="S39" t="n">
+        <v>3</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>43</v>
+      </c>
+      <c r="F40" t="s">
+        <v>268</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>269</v>
+      </c>
+      <c r="J40" t="s">
+        <v>264</v>
+      </c>
+      <c r="K40" t="s">
+        <v>270</v>
+      </c>
+      <c r="L40" t="s">
+        <v>271</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s">
+        <v>105</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>43</v>
+      </c>
+      <c r="F41" t="s">
+        <v>272</v>
+      </c>
+      <c r="G41" t="s">
+        <v>45</v>
+      </c>
+      <c r="H41" t="s">
+        <v>46</v>
+      </c>
+      <c r="I41" t="s">
+        <v>273</v>
+      </c>
+      <c r="J41" t="s">
+        <v>274</v>
+      </c>
+      <c r="K41" t="s">
+        <v>275</v>
+      </c>
+      <c r="L41" t="s">
+        <v>276</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>277</v>
+      </c>
+      <c r="O41" t="s">
+        <v>174</v>
+      </c>
+      <c r="P41" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F42" t="s">
+        <v>278</v>
+      </c>
+      <c r="G42" t="s">
+        <v>45</v>
+      </c>
+      <c r="H42" t="s">
+        <v>46</v>
+      </c>
+      <c r="I42" t="s">
+        <v>279</v>
+      </c>
+      <c r="J42" t="s">
+        <v>280</v>
+      </c>
+      <c r="K42" t="s"/>
+      <c r="L42" t="s">
+        <v>119</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>281</v>
+      </c>
+      <c r="O42" t="s">
+        <v>52</v>
+      </c>
+      <c r="P42" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>5</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5</v>
+      </c>
+      <c r="S42" t="n">
+        <v>5</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>282</v>
+      </c>
+      <c r="G43" t="s">
+        <v>45</v>
+      </c>
+      <c r="H43" t="s">
+        <v>46</v>
+      </c>
+      <c r="I43" t="s">
+        <v>283</v>
+      </c>
+      <c r="J43" t="s">
+        <v>284</v>
+      </c>
+      <c r="K43" t="s">
+        <v>285</v>
+      </c>
+      <c r="L43" t="s">
+        <v>286</v>
+      </c>
+      <c r="M43" t="n">
+        <v>5</v>
+      </c>
+      <c r="N43" t="s"/>
+      <c r="O43" t="s"/>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>4</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>43</v>
+      </c>
+      <c r="F44" t="s">
+        <v>287</v>
+      </c>
+      <c r="G44" t="s">
+        <v>45</v>
+      </c>
+      <c r="H44" t="s">
+        <v>46</v>
+      </c>
+      <c r="I44" t="s">
+        <v>288</v>
+      </c>
+      <c r="J44" t="s">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s">
+        <v>290</v>
+      </c>
+      <c r="L44" t="s">
+        <v>291</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5</v>
+      </c>
+      <c r="N44" t="s">
+        <v>292</v>
+      </c>
+      <c r="O44" t="s">
+        <v>52</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>5</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>5</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
+        <v>293</v>
+      </c>
+      <c r="G45" t="s">
+        <v>45</v>
+      </c>
+      <c r="H45" t="s">
+        <v>46</v>
+      </c>
+      <c r="I45" t="s">
+        <v>294</v>
+      </c>
+      <c r="J45" t="s">
+        <v>295</v>
+      </c>
+      <c r="K45" t="s">
+        <v>154</v>
+      </c>
+      <c r="L45" t="s">
+        <v>296</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
+        <v>292</v>
+      </c>
+      <c r="O45" t="s">
+        <v>105</v>
+      </c>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>43</v>
+      </c>
+      <c r="F46" t="s">
+        <v>297</v>
+      </c>
+      <c r="G46" t="s">
+        <v>45</v>
+      </c>
+      <c r="H46" t="s">
+        <v>46</v>
+      </c>
+      <c r="I46" t="s">
+        <v>298</v>
+      </c>
+      <c r="J46" t="s">
+        <v>299</v>
+      </c>
+      <c r="K46" t="s"/>
+      <c r="L46" t="s"/>
+      <c r="M46" t="n">
+        <v>5</v>
+      </c>
+      <c r="N46" t="s">
+        <v>300</v>
+      </c>
+      <c r="O46" t="s">
+        <v>105</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5</v>
+      </c>
+      <c r="S46" t="n">
+        <v>5</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>43</v>
+      </c>
+      <c r="F47" t="s">
+        <v>301</v>
+      </c>
+      <c r="G47" t="s">
+        <v>45</v>
+      </c>
+      <c r="H47" t="s">
+        <v>46</v>
+      </c>
+      <c r="I47" t="s">
+        <v>302</v>
+      </c>
+      <c r="J47" t="s">
+        <v>303</v>
+      </c>
+      <c r="K47" t="s">
+        <v>304</v>
+      </c>
+      <c r="L47" t="s">
+        <v>305</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>306</v>
+      </c>
+      <c r="O47" t="s">
+        <v>105</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>5</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48" t="s">
+        <v>307</v>
+      </c>
+      <c r="G48" t="s">
+        <v>45</v>
+      </c>
+      <c r="H48" t="s">
+        <v>46</v>
+      </c>
+      <c r="I48" t="s">
+        <v>308</v>
+      </c>
+      <c r="J48" t="s">
+        <v>309</v>
+      </c>
+      <c r="K48" t="s">
+        <v>310</v>
+      </c>
+      <c r="L48" t="s">
+        <v>311</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>312</v>
+      </c>
+      <c r="O48" t="s">
+        <v>105</v>
+      </c>
+      <c r="P48" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>43</v>
+      </c>
+      <c r="F49" t="s">
+        <v>313</v>
+      </c>
+      <c r="G49" t="s">
+        <v>45</v>
+      </c>
+      <c r="H49" t="s">
+        <v>46</v>
+      </c>
+      <c r="I49" t="s">
+        <v>314</v>
+      </c>
+      <c r="J49" t="s">
+        <v>315</v>
+      </c>
+      <c r="K49" t="s">
+        <v>316</v>
+      </c>
+      <c r="L49" t="s">
+        <v>317</v>
+      </c>
+      <c r="M49" t="n">
+        <v>5</v>
+      </c>
+      <c r="N49" t="s">
+        <v>318</v>
+      </c>
+      <c r="O49" t="s">
+        <v>52</v>
+      </c>
+      <c r="P49" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>5</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>5</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>43</v>
+      </c>
+      <c r="F50" t="s">
+        <v>319</v>
+      </c>
+      <c r="G50" t="s">
+        <v>45</v>
+      </c>
+      <c r="H50" t="s">
+        <v>46</v>
+      </c>
+      <c r="I50" t="s">
+        <v>320</v>
+      </c>
+      <c r="J50" t="s">
+        <v>321</v>
+      </c>
+      <c r="K50" t="s">
+        <v>322</v>
+      </c>
+      <c r="L50" t="s">
+        <v>323</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>324</v>
+      </c>
+      <c r="O50" t="s">
+        <v>174</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>43</v>
+      </c>
+      <c r="F51" t="s">
+        <v>325</v>
+      </c>
+      <c r="G51" t="s">
+        <v>45</v>
+      </c>
+      <c r="H51" t="s">
+        <v>46</v>
+      </c>
+      <c r="I51" t="s">
+        <v>326</v>
+      </c>
+      <c r="J51" t="s">
+        <v>327</v>
+      </c>
+      <c r="K51" t="s">
+        <v>328</v>
+      </c>
+      <c r="L51" t="s">
+        <v>329</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>330</v>
+      </c>
+      <c r="O51" t="s">
+        <v>64</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>43</v>
+      </c>
+      <c r="F52" t="s">
+        <v>331</v>
+      </c>
+      <c r="G52" t="s">
+        <v>45</v>
+      </c>
+      <c r="H52" t="s">
+        <v>46</v>
+      </c>
+      <c r="I52" t="s">
+        <v>332</v>
+      </c>
+      <c r="J52" t="s">
+        <v>333</v>
+      </c>
+      <c r="K52" t="s">
+        <v>334</v>
+      </c>
+      <c r="L52" t="s">
+        <v>335</v>
+      </c>
+      <c r="M52" t="n">
+        <v>2</v>
+      </c>
+      <c r="N52" t="s">
+        <v>330</v>
+      </c>
+      <c r="O52" t="s">
+        <v>105</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>43</v>
+      </c>
+      <c r="F53" t="s">
+        <v>336</v>
+      </c>
+      <c r="G53" t="s">
+        <v>45</v>
+      </c>
+      <c r="H53" t="s">
+        <v>46</v>
+      </c>
+      <c r="I53" t="s">
+        <v>337</v>
+      </c>
+      <c r="J53" t="s">
+        <v>338</v>
+      </c>
+      <c r="K53" t="s">
+        <v>339</v>
+      </c>
+      <c r="L53" t="s">
+        <v>340</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>341</v>
+      </c>
+      <c r="O53" t="s">
+        <v>105</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>5</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>43</v>
+      </c>
+      <c r="F54" t="s">
+        <v>342</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+      <c r="H54" t="s">
+        <v>46</v>
+      </c>
+      <c r="I54" t="s">
+        <v>343</v>
+      </c>
+      <c r="J54" t="s">
+        <v>344</v>
+      </c>
+      <c r="K54" t="s"/>
+      <c r="L54" t="s">
+        <v>119</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>341</v>
+      </c>
+      <c r="O54" t="s">
+        <v>52</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>43</v>
+      </c>
+      <c r="F55" t="s">
+        <v>345</v>
+      </c>
+      <c r="G55" t="s">
+        <v>45</v>
+      </c>
+      <c r="H55" t="s">
+        <v>46</v>
+      </c>
+      <c r="I55" t="s">
+        <v>346</v>
+      </c>
+      <c r="J55" t="s">
+        <v>347</v>
+      </c>
+      <c r="K55" t="s">
+        <v>348</v>
+      </c>
+      <c r="L55" t="s">
+        <v>349</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>350</v>
+      </c>
+      <c r="O55" t="s">
+        <v>105</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>4</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>43</v>
+      </c>
+      <c r="F56" t="s">
+        <v>351</v>
+      </c>
+      <c r="G56" t="s">
+        <v>45</v>
+      </c>
+      <c r="H56" t="s">
+        <v>46</v>
+      </c>
+      <c r="I56" t="s">
+        <v>352</v>
+      </c>
+      <c r="J56" t="s">
+        <v>353</v>
+      </c>
+      <c r="K56" t="s">
+        <v>354</v>
+      </c>
+      <c r="L56" t="s">
+        <v>355</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s"/>
+      <c r="O56" t="s"/>
+      <c r="P56" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>43</v>
+      </c>
+      <c r="F57" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>357</v>
+      </c>
+      <c r="J57" t="s">
+        <v>358</v>
+      </c>
+      <c r="K57" t="s">
+        <v>359</v>
+      </c>
+      <c r="L57" t="s">
+        <v>360</v>
+      </c>
+      <c r="M57" t="n">
+        <v>3</v>
+      </c>
+      <c r="N57" t="s">
+        <v>361</v>
+      </c>
+      <c r="O57" t="s">
+        <v>105</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="n">
+        <v>1</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>43</v>
+      </c>
+      <c r="F58" t="s">
+        <v>363</v>
+      </c>
+      <c r="G58" t="s">
+        <v>45</v>
+      </c>
+      <c r="H58" t="s">
+        <v>46</v>
+      </c>
+      <c r="I58" t="s">
+        <v>364</v>
+      </c>
+      <c r="J58" t="s">
+        <v>365</v>
+      </c>
+      <c r="K58" t="s">
+        <v>366</v>
+      </c>
+      <c r="L58" t="s">
+        <v>367</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s">
+        <v>368</v>
+      </c>
+      <c r="O58" t="s">
+        <v>52</v>
+      </c>
+      <c r="P58" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>4</v>
+      </c>
+      <c r="R58" t="n">
+        <v>3</v>
+      </c>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>2</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>43</v>
+      </c>
+      <c r="F59" t="s">
+        <v>369</v>
+      </c>
+      <c r="G59" t="s">
+        <v>45</v>
+      </c>
+      <c r="H59" t="s">
+        <v>46</v>
+      </c>
+      <c r="I59" t="s">
+        <v>370</v>
+      </c>
+      <c r="J59" t="s">
+        <v>371</v>
+      </c>
+      <c r="K59" t="s">
+        <v>372</v>
+      </c>
+      <c r="L59" t="s">
+        <v>373</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>374</v>
+      </c>
+      <c r="O59" t="s">
+        <v>52</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>5</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>373</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_431.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_431.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="593">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -147,18 +147,57 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/11/2018</t>
+    <t>09/08/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r604050145-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>55726</t>
+  </si>
+  <si>
+    <t>1159033</t>
+  </si>
+  <si>
+    <t>604050145</t>
+  </si>
+  <si>
+    <t>08/07/2018</t>
+  </si>
+  <si>
+    <t>Family vacation</t>
+  </si>
+  <si>
+    <t>We have stayed there a few times it's always been clean and service has always been excellent.my family always enjoys the pool area.everyone there is very nice and professional.the rooms are cleaned very well.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r601662921-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>601662921</t>
+  </si>
+  <si>
+    <t>07/31/2018</t>
+  </si>
+  <si>
+    <t>Very clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My family and I stayed here during our vacation to Houston and Kemah. It is about 20 minutes to Houston and 10 minutes away from Kemah. It is pet friendly and very clean. It has an indoor pool, nice small gym area, and has a pergola for a BBQ. </t>
+  </si>
+  <si>
+    <t>July 2018</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r600336580-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
-    <t>55726</t>
-  </si>
-  <si>
-    <t>1159033</t>
-  </si>
-  <si>
     <t>600336580</t>
   </si>
   <si>
@@ -171,9 +210,6 @@
     <t>I really enjoyed this hotel.  Staff was nice.  Check in was simple.  I did my normal pre-settling in inspection and didn't find anything gross.  Breakfast was nice and easy in the morning.  Overall the stay was enjoyable.</t>
   </si>
   <si>
-    <t>July 2018</t>
-  </si>
-  <si>
     <t xml:space="preserve"> traveled on business</t>
   </si>
   <si>
@@ -213,6 +249,42 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r586843672-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>586843672</t>
+  </si>
+  <si>
+    <t>06/11/2018</t>
+  </si>
+  <si>
+    <t>Confirm your booking by calling the property</t>
+  </si>
+  <si>
+    <t>I reserved my room using Southwest.com (in partnership booking.com). I checked in at 22:00 only to find out that La Quinta did not have my booking on their system thus I was charged 50% higher rate then rate initially on booking.com</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r585653737-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>585653737</t>
+  </si>
+  <si>
+    <t>06/06/2018</t>
+  </si>
+  <si>
+    <t>Worth the Stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I loved this hotel.  Service was fabulous, the room was very nice and clean and a great breakfast.  Also there is a great area to potty dogs.  I stay in a lot of LaQuinta’s and this was a great one.  Was a little higher but it was close to a friends home so decided to pay the price.  </t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r584028574-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -258,6 +330,39 @@
     <t>April 2018</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r576165435-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>576165435</t>
+  </si>
+  <si>
+    <t>04/27/2018</t>
+  </si>
+  <si>
+    <t>Large rooms and clean</t>
+  </si>
+  <si>
+    <t>The rooms were very spacious and clean. The location has a good seafood restaurant across the street and is also close to a fast food establishment. It was easy to get to the San Jacinto Monument, and it is only a short drive to NASA. The pool is indoors and clean. The exercise room is nice as well. I rated "sleep quality" as "very good" only because the sofa bed was not very comfortable. Overall, we had a nice visit, and I will stay at this location again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r559455085-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>559455085</t>
+  </si>
+  <si>
+    <t>02/09/2018</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>Very clean and well maintained.  Nice breakfast and plenty of selection.  Room was spacious and beds were comfortable.  Not able to use pool just because we were busy but it looked clean and the water temperature was decent.  Staff was very nice and check in/out easy.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r558015753-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -273,9 +378,6 @@
     <t>It was clean and pretty quiet.  The beds we very comfortable and the bathroom clean.  Lighting was poor in half of the room where the sofa bed was.  There was no lamps or lights in that area.  Breakfast was good with a good selection.  Coffee was very good but you had to wait till each cup was brewed.  Worth the wait.  Check in went fast as well as checkout.  My only problem was the keys.  My third night my key would not open the door.  Had to go back downstairs to get it re-keyed.  Went back to room door still would not unlock.  Back downstairs and that is when they noticed that they date of check-out is the computer was wrong.  Problem solved.MoreShow less</t>
   </si>
   <si>
-    <t>January 2018</t>
-  </si>
-  <si>
     <t>It was clean and pretty quiet.  The beds we very comfortable and the bathroom clean.  Lighting was poor in half of the room where the sofa bed was.  There was no lamps or lights in that area.  Breakfast was good with a good selection.  Coffee was very good but you had to wait till each cup was brewed.  Worth the wait.  Check in went fast as well as checkout.  My only problem was the keys.  My third night my key would not open the door.  Had to go back downstairs to get it re-keyed.  Went back to room door still would not unlock.  Back downstairs and that is when they noticed that they date of check-out is the computer was wrong.  Problem solved.More</t>
   </si>
   <si>
@@ -315,6 +417,42 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r499310498-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>499310498</t>
+  </si>
+  <si>
+    <t>07/06/2017</t>
+  </si>
+  <si>
+    <t>Excellent, Friendly and Welcoming</t>
+  </si>
+  <si>
+    <t>I have stayed at this LaQuinta Hotel in Deer Park a few times over the past several months. Without a doubt it has been the most friendly and inviting hotel to stay in. The place is maintained well with the rooms being very clean and neat. I would highly recommend this place to anyone wanting to have a relaxing stay.</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r488428650-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>488428650</t>
+  </si>
+  <si>
+    <t>05/28/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Well Maintained </t>
+  </si>
+  <si>
+    <t>Just an overnight stay on the way to cruise out of Galveston. Very clean, well maintained.  Good shower pressure, good temperature control. Good proximity to Kemah Boardwalk.Kemah is worth the visit.Close to San Jancito park too!</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r482921184-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -330,12 +468,6 @@
     <t>This is obviously not a high end hotel but I did expect the toilet to function however it was broken. These are simple things the housekeeper should have reported and had fixed before I checked in. Staff didn't seem too concerned about my inconvenience. I'm heading back to a Marriott property. MoreShow less</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>LQDEERPARKGM, Manager at La Quinta Inn &amp; Suites Deer Park, responded to this reviewResponded May 11, 2017</t>
   </si>
   <si>
@@ -381,6 +513,42 @@
     <t>More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r438218181-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>438218181</t>
+  </si>
+  <si>
+    <t>11/15/2016</t>
+  </si>
+  <si>
+    <t>Very Clean and friendly</t>
+  </si>
+  <si>
+    <t>My stay was over all a good experience no complaints.  Hotel had friendly staff that were available at all times. Rooms were clean no sign or bugs or rodents. Room smelled clean and sheets smelled fresh.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r412989364-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>412989364</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Much improved with updated remodel of entry</t>
+  </si>
+  <si>
+    <t>While the rooms and beds are always clean and comfortable at this La Quinta the recent upgrade of the entry, check in and breakfast area make the entire area more inviting and comfortable to use.  The breakfast is fresh and tasty with plenty of options if you are staying more than a night.</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r409943499-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -394,9 +562,6 @@
   </si>
   <si>
     <t>The La Quinta in Deer Park is a very nice hotel and a great place to stay. Their from desk team Ashley, Amanda, Megan &amp; France are so helpful &amp; kind. They go out of their way for the guest. They make me feel I came home. The management team Sam &amp; Nicole are always doing the best they can to ensure their guests are comfortable. A special thank you to the cleaning ladies for the hard work they do. I work odd hours and they always fine the time to clean my room.</t>
-  </si>
-  <si>
-    <t>August 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r406197739-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -437,6 +602,42 @@
 As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open,...We chose this pool for its indoor pool. It was supposed to be raining for the weekend and we wanted to make sure we could swim. The water in the Frio River in April is warmer than this pool is right now. After my 9 year old daughter went to the front desk to complain, the general manager came in to see for himself. He told my mother that the thermostat was set in 80 and it was normally kept at 80-85 degrees in the pool. Then he turned the thermostat up to 90 and opened one of the external Windows 'to warm up the pool.' He was also going to 'contact his pool guy.' Three hours later no change in pool temp. The room was too hot and humid. I shut the window and turned down the thermostat to the air conditioner. While typing this the temperature and humidity already dropped and the pool is still the same it was last night. As for the rest of the hotel, we stayed here 3 or 4 years ago and the breakfast was good. Today it was so-so at best. The water pressure for the shower at night in a near empty hotel was barely there. There was grout missing in the tiles in the bathroom. There is a large chunk of carpet missing in the hallway off the 2nd floor elevator. Half the doors look like they've been pried open, the door to the parking lot barely shuts behind you. If you try to re-enter from the outside the door light turns green but it doesn't unlock. You have to walk around the building to enter. The bed is not the best and the pillows are yucky. The rooms are cleaned very well and the lady at the front desk was very helpful the pool problem.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r396835080-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>396835080</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent service</t>
+  </si>
+  <si>
+    <t>The day before my arrival at La Quinta, I received a phone call from a nice woman asking if I'd like the boxes I shipped there delivered to my room....prior to my arriving.  This is excellent service, I've been to umpteen hotels and shipped my samples there in advance.  Not once has anyone called me to inquire about helping connect me with my boxes.  Usually I am verifying delivery on my own, just to make sure they were delivered.  5 stars for going the extra mile.  Otherwise, this is a nice property, very large rooms with all the regulars.  Low key area, mostly residential surroundings.  Breakfast was decent, on par with other hotels doing free breakfast.  Good job La Quinta Deer Park.MoreShow less</t>
+  </si>
+  <si>
+    <t>The day before my arrival at La Quinta, I received a phone call from a nice woman asking if I'd like the boxes I shipped there delivered to my room....prior to my arriving.  This is excellent service, I've been to umpteen hotels and shipped my samples there in advance.  Not once has anyone called me to inquire about helping connect me with my boxes.  Usually I am verifying delivery on my own, just to make sure they were delivered.  5 stars for going the extra mile.  Otherwise, this is a nice property, very large rooms with all the regulars.  Low key area, mostly residential surroundings.  Breakfast was decent, on par with other hotels doing free breakfast.  Good job La Quinta Deer Park.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r391738266-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>391738266</t>
+  </si>
+  <si>
+    <t>07/12/2016</t>
+  </si>
+  <si>
+    <t>Down time</t>
+  </si>
+  <si>
+    <t>My boyfriend and I have stayed at this hotel several times over the year. It is clean and the staff is friendly. I am able to bring my dogs and they do charge an extra fee for them. The breakfast selections are good. The rooms are clean and spacious. I have never had a problem staying here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r384677921-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -491,6 +692,39 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r365302927-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>365302927</t>
+  </si>
+  <si>
+    <t>04/18/2016</t>
+  </si>
+  <si>
+    <t>Great Facility</t>
+  </si>
+  <si>
+    <t>This is a very clean hotel. It's location just a few blocks from the freeway make this a very quiet stay in what seemed like a neighborhood setting.  Easy access to an ample selection of restaurants, which are just down the street maybe a mile away without having go negotiate busy freeway trafic.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r356521987-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>356521987</t>
+  </si>
+  <si>
+    <t>03/18/2016</t>
+  </si>
+  <si>
+    <t>Great place away from Houston.</t>
+  </si>
+  <si>
+    <t>This hotel is a bit out of the way from things, but that makes it a bit quiet. The hotel is currently being renovated in some places, but it is not inconvenient. The room was big and comfortable. The beds were firm, a nice change from the too soft beds of other hotels. The bathroom was clean and worked well. The breakfast was great! Pastries, waffles, eggs, sausage, fruit, a variety of fruit juices and coffee, and cereal. The check in was quick and the staff courteous! Would definitely recommend this place.</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r356468941-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -506,9 +740,6 @@
     <t>Hotel is clean, well-maintained, and well-run.  Hotel is close to many industrial plants, the USS Texas battleship, and the San Jacinto Monument.  The staff was efficient and friendly and the room was quiet.</t>
   </si>
   <si>
-    <t>March 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r343470763-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -542,7 +773,40 @@
     <t>This LaQuinta was new, clean, safe, and away from the hustle and bustle of Houston!  I liked it because it was by itself kind of like in a rural setting! Even though DEER PARK has millions of refineries this hotel was not among them!!</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r334544669-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>334544669</t>
+  </si>
+  <si>
+    <t>12/22/2015</t>
+  </si>
+  <si>
+    <t>Love this Place</t>
+  </si>
+  <si>
+    <t>Nice place to stay and the employees are extremely nice and helpful!!!  Clean and smells fresh!!!!  The area is nice too!!!  Close enough to the highway, but far enough from the highway.  I have stayed here before and will stay here again!!!</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r326418151-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>326418151</t>
+  </si>
+  <si>
+    <t>11/09/2015</t>
+  </si>
+  <si>
+    <t>Great for business trips</t>
+  </si>
+  <si>
+    <t>A clean, well-run hotel that was convenient for my stay.  The breakfast buffet was good.  The room was clean and quiet. Due to the location, this hotel is tailored for business travelers. However, the USS Texas battleship and the Battle of San Jacinto monument and museum are nearby.</t>
+  </si>
+  <si>
+    <t>November 2015</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r294294240-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -596,6 +860,39 @@
     <t>The General Manager Sheila Daniels was Very Respectful, Courteous, Kind and Resourceful.  She made sure that the room was acceptable and informed us if there was anything that she could do, do not hesitate to ask.  Ms. Daniels has excellent Customer Service she is a Great Asset to your Company. We were Newly Weds and we were very satisfied.  We will continue to use this Hotel when we are in the area just because of the Excellent Service we received from Ms Daniels and her staff. I would recommend this Hotel to Anyone.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r285622666-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>285622666</t>
+  </si>
+  <si>
+    <t>07/04/2015</t>
+  </si>
+  <si>
+    <t>Great Service</t>
+  </si>
+  <si>
+    <t>The desk clerk was great, she made sure that we had a room that would accommodate our family.  She found us a room that was just right for us.  She also gave us some tips on places to visit while on our family outing.  Our family is from Iowa and the grand kids had never seen the ocean/Gulf or the Houston area.  The hot breakfast was also very good.  The room was clean, no problems.  I really can not say anything bad about the experience.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r281295919-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>281295919</t>
+  </si>
+  <si>
+    <t>06/17/2015</t>
+  </si>
+  <si>
+    <t>Wedding Stay</t>
+  </si>
+  <si>
+    <t>Came to Deer Park for a family wedding.  The LaQuinta in Deer Park was a very comfortable stay.  Breakfasts were outstanding.  Room was comfortable and reasonable for the length we were there.  Didn't use the pool; but it looked very clean and well kept.  I would recommend this hotel to anyone.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r277138700-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -644,6 +941,42 @@
     <t>Stayed here with a team. Very good rate. Rooms were huge. Nothing fancy by any means, but plenty of room. they were clean, which is important and something I definetly look for. Everyone was pleasant. Pool closes at 11, giving the team plenty of time to relax after a long day. Employee came in to let them know they had 15 minutes and gave them a little extra. (It's those little things) Breakfast was a typical LQ bfast, nothing fancy, but will get you going. Would definetly stay again if in the area.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r266701241-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>266701241</t>
+  </si>
+  <si>
+    <t>04/19/2015</t>
+  </si>
+  <si>
+    <t>Poor upkeep</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice size rooms, nice mattress but up keep on building is terrible.  Mold in bathroom on wall, rain storm came in and the full size window poured in rain. Called the lobby and they were not concerned. Happens often when raining. Offered towels if I wanted to come down and get them.  Air conditioner quit working off and on because of the water flowing in since it was mounted under the window. Carpet about three feet out was wet, curtains drenched.   </t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r262198757-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>262198757</t>
+  </si>
+  <si>
+    <t>03/27/2015</t>
+  </si>
+  <si>
+    <t>Average stay; did not exceed expectations</t>
+  </si>
+  <si>
+    <t>I have stayed at this La Quinta on many occasions but will likely begin staying in other hotels. Each time I stay with your facility I am less and less impressed with your quality. My most recent stay was in a room that had a foul odor resembling cigarette smoke. This odor was so potent that when I returned home and unpacked my articles of clothing smelled of the odor.</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r259340295-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -695,6 +1028,42 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r255972501-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>255972501</t>
+  </si>
+  <si>
+    <t>02/23/2015</t>
+  </si>
+  <si>
+    <t>Always a great stay</t>
+  </si>
+  <si>
+    <t>This hotel is wonderful. They do all they can to help us in any way. We are a traveling, competitive robotics team and we come to Pasadena twice a year. This is always where we stay. They make sure we are well taken care of. Our competition starts extremely early so they make sure the kids a fed in time to arrive early. They also work with us in many other ways and we love staying here. I recommend this hotel and staff highly and would not stay anywhere else.Peggy Albritton, Huntington High School Gearheads</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r245502562-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>245502562</t>
+  </si>
+  <si>
+    <t>12/22/2014</t>
+  </si>
+  <si>
+    <t>"Customer Service at it's Best!"</t>
+  </si>
+  <si>
+    <t>We checked in yesterday the Front Desk Clerk was very helpful with Places to go eat and Malls. Today, I needed help printing something from the business center the Clerk came around and helped with a smile. It's been awhile since I have stayed at La Quinta no regrets The rooms are big nice color. Deco in the room is not Cheesy. Tv in the room is small for the size of the room. The beds are heaven traveling a long distance makes a difference. Great indoor pool and workout room.  The breakfast selections great. The Coffee is good, I didn't have to go pay The Starbuck price.  Nice entrance it's lighted with an area to sit .MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>We checked in yesterday the Front Desk Clerk was very helpful with Places to go eat and Malls. Today, I needed help printing something from the business center the Clerk came around and helped with a smile. It's been awhile since I have stayed at La Quinta no regrets The rooms are big nice color. Deco in the room is not Cheesy. Tv in the room is small for the size of the room. The beds are heaven traveling a long distance makes a difference. Great indoor pool and workout room.  The breakfast selections great. The Coffee is good, I didn't have to go pay The Starbuck price.  Nice entrance it's lighted with an area to sit .More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r242833986-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -704,9 +1073,6 @@
     <t>12/03/2014</t>
   </si>
   <si>
-    <t>December 2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r239658125-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -743,6 +1109,42 @@
     <t>My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will...My family and I recently stayed at the Deer Park location and had a wonderful experience My wife had surgery in Galveston and was advised by her Dr that we stay nearby for a few days due to her condition, the Dr felt we should not attempt the 3-4 hr drive home due to my wife's condition as well as my wife is handicapped /disabled. Our health insurance did not want to cover the extra stays needed at the hospital, so we decided to follow the advise of her Dr and book a room. I am a Loyal Elite Rewards Member and when I went to book us a room near Galveston there were no rooms throughout the area due to a Bike Rally Event in Galveston. Once I was able to get in contact with the Deer Park location ( over an hour or so drive ), Sheila Daniels assisted us. I explained the situation and she was very attentive to our needs. We checked out of hospital around 10am and Sheila was able to check us in as soon as we arrived around noon even though check in was at 3pm. They made sure our room was ready and had extra pillows ,towels etc for our comfort before we arrived. I would like to personally Thank Sheila Daniels  and Staff for making my wife comfortable after her surgery and giving us that little extra special attention. We will be having a follow up appointment next week and are planning to stay at your location on Nov 18th for 1 night so we won't have to make a round trip that same day to/from home.Kindest Regards,Michael P. Este ( H053993284  Rewards Member)More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r239333172-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>239333172</t>
+  </si>
+  <si>
+    <t>11/11/2014</t>
+  </si>
+  <si>
+    <t>Nice hotel</t>
+  </si>
+  <si>
+    <t>Check in at this La Quinta was great. Our rooms were ready upon our arrival. The rooms were clean.  The breakfast was good abd best of all the coffee dispenser allowed you to select from weak, medium or strong coffee along with cappuccino as well...</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r233195705-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>233195705</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Not going back -- rude staff</t>
+  </si>
+  <si>
+    <t>We recently stayed there for 4 nights.  This was our third stay at the hotel.  We had never had any problems before.  The hotel is booked with out of town contractors and is crowded because of that.  Our first room smelled of cigarette smoke.  This is a non-smoking hotel.  The desk clerk moved us and even though we were in a room that did not meet our preferences, we were happy to be moved.  The arm on the office chair had been broken previously and broke entirely the third night of the visit.  Because the hotel is full of contractors with extremely early hours, the adjoining room woke us up early every morning.  The breakfast area was packed.  But the kicker was the fourth and final night of our stay.  The young desk clerk telephoned our room at bedtime, and without any other introduction rudely demanded to know if we were smoking in our room.  When I answered emphatically No! I asked why she wanted to know.  She would not respond the first two times I asked, but finally said that the room next door complained that they were smelling cigarette smoke and it is usually the adjoining bathroom where it is coming from.  I told her that people who had complained about cigarette smoke in their first room were probably not the likely culprits but I invited her to come up to the room and check it out for...We recently stayed there for 4 nights.  This was our third stay at the hotel.  We had never had any problems before.  The hotel is booked with out of town contractors and is crowded because of that.  Our first room smelled of cigarette smoke.  This is a non-smoking hotel.  The desk clerk moved us and even though we were in a room that did not meet our preferences, we were happy to be moved.  The arm on the office chair had been broken previously and broke entirely the third night of the visit.  Because the hotel is full of contractors with extremely early hours, the adjoining room woke us up early every morning.  The breakfast area was packed.  But the kicker was the fourth and final night of our stay.  The young desk clerk telephoned our room at bedtime, and without any other introduction rudely demanded to know if we were smoking in our room.  When I answered emphatically No! I asked why she wanted to know.  She would not respond the first two times I asked, but finally said that the room next door complained that they were smelling cigarette smoke and it is usually the adjoining bathroom where it is coming from.  I told her that people who had complained about cigarette smoke in their first room were probably not the likely culprits but I invited her to come up to the room and check it out for herself.  She said she couldn't leave the front desk.  No apology.  No other comment.  We left the next morning and the desk clerk apologized profusely for the night clerk's actions, but, he was on the phone with his boss and I asked him or her to please call me on my cell phone so I could report the matter.  I heard him saying that they were booked solid for the next two weeks.  I am quite sure that people who are occasional travelers to Deer Park are not someone they are really concerned about.  Their bread and butter are these contractors.  Needless to say, we will be staying next door in the future.  I have e-mailed the general manager this evening after receiving an e-mail thanking us for our recent stay and requesting input.  I hope that I hear back from him.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>We recently stayed there for 4 nights.  This was our third stay at the hotel.  We had never had any problems before.  The hotel is booked with out of town contractors and is crowded because of that.  Our first room smelled of cigarette smoke.  This is a non-smoking hotel.  The desk clerk moved us and even though we were in a room that did not meet our preferences, we were happy to be moved.  The arm on the office chair had been broken previously and broke entirely the third night of the visit.  Because the hotel is full of contractors with extremely early hours, the adjoining room woke us up early every morning.  The breakfast area was packed.  But the kicker was the fourth and final night of our stay.  The young desk clerk telephoned our room at bedtime, and without any other introduction rudely demanded to know if we were smoking in our room.  When I answered emphatically No! I asked why she wanted to know.  She would not respond the first two times I asked, but finally said that the room next door complained that they were smelling cigarette smoke and it is usually the adjoining bathroom where it is coming from.  I told her that people who had complained about cigarette smoke in their first room were probably not the likely culprits but I invited her to come up to the room and check it out for...We recently stayed there for 4 nights.  This was our third stay at the hotel.  We had never had any problems before.  The hotel is booked with out of town contractors and is crowded because of that.  Our first room smelled of cigarette smoke.  This is a non-smoking hotel.  The desk clerk moved us and even though we were in a room that did not meet our preferences, we were happy to be moved.  The arm on the office chair had been broken previously and broke entirely the third night of the visit.  Because the hotel is full of contractors with extremely early hours, the adjoining room woke us up early every morning.  The breakfast area was packed.  But the kicker was the fourth and final night of our stay.  The young desk clerk telephoned our room at bedtime, and without any other introduction rudely demanded to know if we were smoking in our room.  When I answered emphatically No! I asked why she wanted to know.  She would not respond the first two times I asked, but finally said that the room next door complained that they were smelling cigarette smoke and it is usually the adjoining bathroom where it is coming from.  I told her that people who had complained about cigarette smoke in their first room were probably not the likely culprits but I invited her to come up to the room and check it out for herself.  She said she couldn't leave the front desk.  No apology.  No other comment.  We left the next morning and the desk clerk apologized profusely for the night clerk's actions, but, he was on the phone with his boss and I asked him or her to please call me on my cell phone so I could report the matter.  I heard him saying that they were booked solid for the next two weeks.  I am quite sure that people who are occasional travelers to Deer Park are not someone they are really concerned about.  Their bread and butter are these contractors.  Needless to say, we will be staying next door in the future.  I have e-mailed the general manager this evening after receiving an e-mail thanking us for our recent stay and requesting input.  I hope that I hear back from him.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r217698928-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -788,6 +1190,39 @@
     <t>06/28/2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r212277799-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>212277799</t>
+  </si>
+  <si>
+    <t>06/20/2014</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>ms wiWe always stay with this hotel when visiting our family and have found it to be clean and very nice.  We would recommend this hotel to any of our friends or family.  The staff and services were very good.  Had no problem with anything</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r203263315-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>203263315</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Security Issues</t>
+  </si>
+  <si>
+    <t>This hotel had serious safety issues during our stay - so much so that we checked out early.  Doors do not always lock and someone was trying to gain access at around 2am in the morning.  Told the desk clerk and he indicated he would check it out.  Signs posted around facility indicating they were not responsible for theft - now we know why.  Find another place if you are going to Deer Park, Tx.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r199104989-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -836,6 +1271,33 @@
     <t>Ive stayed at a lot of hotels, this one by far is one of the best. It is clean, quiet and the free basket is delicious. The staff is helpful and wonderful. It is in.a great location given access to many different attractions. I will definitely return back here</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r196525156-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>196525156</t>
+  </si>
+  <si>
+    <t>03/07/2014</t>
+  </si>
+  <si>
+    <t>BEST HOTEL I HAVE BEEN TO IN A LOOOOONNNNNGGGGG TIME</t>
+  </si>
+  <si>
+    <t>This was the best hotel stay I have had in a long time.  Very Clean, Very friendly and the breakfast was DELICIOUS.  Very personable people behind the desk that would do anything to help you!  And they allow pets too--though I did not have one. I would stay here again in a heartbeat!!   Thanks La Quinta</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r190561186-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>190561186</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r188300211-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -881,6 +1343,33 @@
     <t xml:space="preserve">Stayed here after my usual spot was full.   Nice place with clean everything.  A little on the pricey side but worth it.  Deer park is a nice are just off the interstate on a less populated road. Got a good seafood restaurant just a block down the road.  </t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r168839922-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>168839922</t>
+  </si>
+  <si>
+    <t>07/24/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r167780371-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>167780371</t>
+  </si>
+  <si>
+    <t>07/16/2013</t>
+  </si>
+  <si>
+    <t>Great for the price.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We had a lovely stay. We didn't do anything in Deer Park so it wasn't close for us, but not to far of a drive either to our vacation attractions.  My kids love the indoor pool and hot tub. Breakfast was okay, but I would have rathered eaten somewhere else. The rooms were clean, the couch in the room had stains all over it. The hotel allows dogs and the halls smelt like dog poop one night, I told the front desk and they said the room service will get it in the morning. Which I think they did, because the smell was gone. </t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r159994379-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1412,36 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r155297725-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>155297725</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Best stay in a hotel Ive had in a long time.</t>
+  </si>
+  <si>
+    <t>This was a great location. We traveled to Houston and Galveston and this was nice and xentral. The bed was super comfortable and the room was spacious. We had enough room to put up a baby play yard. The bathroom and room were really clean and the hotel is smoke free. I felt safe there. Love the indoor pool and hot tub.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r154954164-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>154954164</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Good Time!</t>
+  </si>
+  <si>
+    <t>This was an excellent visit!  We were visiting friends and family for spring break, the indorr pool and spa was perfect, not overcrowded like I thought it might would be.  The only thing is, the control for the refrigerator is a light switch at the front door, if you don't know that, and you switch it off, everything in the fridge goes bad.....  NOT a good thing when you have formula for an infant in there........Other than that, it was perfect!!</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r152265847-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -977,6 +1496,30 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r144753491-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>144753491</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r143566089-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>143566089</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Very nice hotel</t>
+  </si>
+  <si>
+    <t>We only stayed one night but the accomodations were great.  The room was spacious as well as the bathroom.  There were plenty of towels.  Bathroom amenities included hair dryer, conditioning shampoo (only) and lotion.  There was a microwave and fridge.  Breakfast was good.  Plenty to choose: scrambled eggs, sausage, biscuits and gravy,  waffles, cereal, yogurt, coffee station, bagels, mini muffins, oatmeal and juices.  We didn't stay long enough to enjoy the pool or gym.  Overall a nice, quiet place to stay.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r141035252-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1028,6 +1571,36 @@
     <t>This was our first trip ever to Texas and first stay with LaQuinta   The stay was great and beds are comfortable. 5 stars to the hotel staff  Lupe,Hannah, Nicole ,Helen and the general manager Sam   Great stay great hotel great Staff! The staff was more than helpful with restaurant recommendations , sending us to great attraction sights. Keep up the good work deer park, Danielle Garcia and Joe smith , Tampa , florida</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r132222302-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>132222302</t>
+  </si>
+  <si>
+    <t>06/18/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r131709412-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>131709412</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Perfect score!!</t>
+  </si>
+  <si>
+    <t>Beautiful, clean, clean room in a new facility.  My husband and I decided to treat ourselves to a two bedroom executive suite on this trip.  The rooms were huge!  We loved having the little kitchen area with sink, microwave, fridge, counter, and cabinets.  I'm not sure if all the suites have this feature, but I enjoyed it as I had to prepare food for a family reunion.  The king size bed was uber comfortable with plenty of pillows.  If I have one complaint it's not enough lighting in the bedroom.  The large picture window provides light during the day, but not at night.  So, it's hard to see inside the closet.  Lighting near the bed is adequate, however.  Otherwise, the room is spacious and nicely furnished.  Besides the king size bed, the furnishings include night stands, double dresser, chair, and of course the 32" flat screen TV.Our reason for choosing LaQuinta is always because of the high speed wifi and pet friendliness, and this facility offers both.  I can't say that I've ever had an unpleasant stay at LaQ, but this one was exceptionally lovely.MoreShow less</t>
+  </si>
+  <si>
+    <t>Beautiful, clean, clean room in a new facility.  My husband and I decided to treat ourselves to a two bedroom executive suite on this trip.  The rooms were huge!  We loved having the little kitchen area with sink, microwave, fridge, counter, and cabinets.  I'm not sure if all the suites have this feature, but I enjoyed it as I had to prepare food for a family reunion.  The king size bed was uber comfortable with plenty of pillows.  If I have one complaint it's not enough lighting in the bedroom.  The large picture window provides light during the day, but not at night.  So, it's hard to see inside the closet.  Lighting near the bed is adequate, however.  Otherwise, the room is spacious and nicely furnished.  Besides the king size bed, the furnishings include night stands, double dresser, chair, and of course the 32" flat screen TV.Our reason for choosing LaQuinta is always because of the high speed wifi and pet friendliness, and this facility offers both.  I can't say that I've ever had an unpleasant stay at LaQ, but this one was exceptionally lovely.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r130824345-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1073,6 +1646,45 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r128144252-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>128144252</t>
+  </si>
+  <si>
+    <t>04/18/2012</t>
+  </si>
+  <si>
+    <t>Will not be returning</t>
+  </si>
+  <si>
+    <t>We recently stayed at the La Quinta in Deer Park, TX. We stay at La Quinta quite frequently and this was, by far, our worst experience.  The staff was awful, especially the night clerks .  They were rude from our arrival to when we left.  Also, the pool was not heated as describes.  In addition to these things, breakfast was not maintained very well.  We had to go ask for items on numerous occasions.  We will definitely not be going back to this hotel.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r125917022-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>125917022</t>
+  </si>
+  <si>
+    <t>03/10/2012</t>
+  </si>
+  <si>
+    <t>Stay away from this place!!!</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for my birthday in February of  2011. It was a horrible and miserable place to stay. I would never recommend this place from hell. The pool was advertised as heated and it was ice cold the hot tub was so full of chlorine that I puked my guts out for days. My eyes swolled up to almost shut. I spoke to the management on duty and they were disrespectful with a bad attitude toward me. The room heater was not working. It was freezing in the room all night long. I was awake all night long. The breakfast wasn't good at all.The sausage, eggs and biscuits were all over cooked and dry and the gravy was cold. All of the food tasted like newspaper and rubber. The whirlpool in the room malfuntioned and almost overflowed. I do not reccomend this place for anyone unless they get their acts together and make some major changes.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2011</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for my birthday in February of  2011. It was a horrible and miserable place to stay. I would never recommend this place from hell. The pool was advertised as heated and it was ice cold the hot tub was so full of chlorine that I puked my guts out for days. My eyes swolled up to almost shut. I spoke to the management on duty and they were disrespectful with a bad attitude toward me. The room heater was not working. It was freezing in the room all night long. I was awake all night long. The breakfast wasn't good at all.The sausage, eggs and biscuits were all over cooked and dry and the gravy was cold. All of the food tasted like newspaper and rubber. The whirlpool in the room malfuntioned and almost overflowed. I do not reccomend this place for anyone unless they get their acts together and make some major changes.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r122066311-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
   </si>
   <si>
@@ -1125,6 +1737,48 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r36346874-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>36346874</t>
+  </si>
+  <si>
+    <t>07/31/2009</t>
+  </si>
+  <si>
+    <t>perfect</t>
+  </si>
+  <si>
+    <t>We recently stayed here and loved it very much.  We have family in the area so chose this place first because of the great rates and convenience.  This is a brand new hotel.  Unlike the "shoddy construction"  review previously, we thought this place was just perfect.  Everything was done and in working order.  I was impressed with the large size of the room and it was beyond our expectations.  It was quiet and felt as if we were the only ones there.  The breakfast was of the usual fare.  They have a Texas shaped waffle maker, biscuits, gravy, bagels, muffins, cereal, juices and coffee, hot tea, etc.  Staff was very friendly and helpful .  I didn't have time to use the pool which is indoors and exercise room but it looked nice as well.  Easy access from Hwy 225 freeway.  I would definitely choose this place again next time we are in Deer Park, Tx.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>We recently stayed here and loved it very much.  We have family in the area so chose this place first because of the great rates and convenience.  This is a brand new hotel.  Unlike the "shoddy construction"  review previously, we thought this place was just perfect.  Everything was done and in working order.  I was impressed with the large size of the room and it was beyond our expectations.  It was quiet and felt as if we were the only ones there.  The breakfast was of the usual fare.  They have a Texas shaped waffle maker, biscuits, gravy, bagels, muffins, cereal, juices and coffee, hot tea, etc.  Staff was very friendly and helpful .  I didn't have time to use the pool which is indoors and exercise room but it looked nice as well.  Easy access from Hwy 225 freeway.  I would definitely choose this place again next time we are in Deer Park, Tx.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r30403919-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
+  </si>
+  <si>
+    <t>30403919</t>
+  </si>
+  <si>
+    <t>05/20/2009</t>
+  </si>
+  <si>
+    <t>Shoddy construction</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for several weeks on business. The hotel was obviously finished in a hurry, and the fit and finish of each room varied. Some rooms still had unpainted areas of walls, some bathrooms had exposed 2x4's under the sink, bathroom counters were cracked in ever room I stayed in. Wall outlets were often loose and some didn't work. I actually expereinced electrical shocks on three seperate occasions.Each room has a switch by the door that turns off almost every outlet in the room. The staff seems to be trained to turn this off after cleaning the room but when the alarm clock and refrigerator are plugged into these outlets, leftover food is ruined, and I had to reset clocks and alarms upon returning to my room each night.The only good thing I can say about this hotel is the TV's are nice new Visio flat screens.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2009</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel for several weeks on business. The hotel was obviously finished in a hurry, and the fit and finish of each room varied. Some rooms still had unpainted areas of walls, some bathrooms had exposed 2x4's under the sink, bathroom counters were cracked in ever room I stayed in. Wall outlets were often loose and some didn't work. I actually expereinced electrical shocks on three seperate occasions.Each room has a switch by the door that turns off almost every outlet in the room. The staff seems to be trained to turn this off after cleaning the room but when the alarm clock and refrigerator are plugged into these outlets, leftover food is ruined, and I had to reset clocks and alarms upon returning to my room each night.The only good thing I can say about this hotel is the TV's are nice new Visio flat screens.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g55726-d1159033-r29940936-La_Quinta_Inn_Suites_Deer_Park-Deer_Park_Texas.html</t>
@@ -1686,13 +2340,13 @@
         <v>52</v>
       </c>
       <c r="P2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>5</v>
       </c>
       <c r="R2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S2" t="n">
         <v>5</v>
@@ -1747,27 +2401,17 @@
         <v>5</v>
       </c>
       <c r="N3" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O3" t="s">
         <v>52</v>
       </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>5</v>
-      </c>
-      <c r="R3" t="n">
-        <v>5</v>
-      </c>
-      <c r="S3" t="n">
-        <v>5</v>
-      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
       <c r="T3" t="s"/>
-      <c r="U3" t="n">
-        <v>5</v>
-      </c>
+      <c r="U3" t="s"/>
       <c r="V3" t="n">
         <v>0</v>
       </c>
@@ -1790,50 +2434,50 @@
         <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>59</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" t="s">
+        <v>61</v>
+      </c>
+      <c r="K4" t="s">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s">
+        <v>63</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>58</v>
-      </c>
-      <c r="G4" t="s">
-        <v>45</v>
-      </c>
-      <c r="H4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I4" t="s">
-        <v>59</v>
-      </c>
-      <c r="J4" t="s">
-        <v>60</v>
-      </c>
-      <c r="K4" t="s">
-        <v>61</v>
-      </c>
-      <c r="L4" t="s">
-        <v>62</v>
-      </c>
-      <c r="M4" t="n">
-        <v>2</v>
-      </c>
-      <c r="N4" t="s">
-        <v>63</v>
       </c>
       <c r="O4" t="s">
         <v>64</v>
       </c>
       <c r="P4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T4" t="s"/>
       <c r="U4" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -1841,7 +2485,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="5">
@@ -1881,10 +2525,10 @@
         <v>5</v>
       </c>
       <c r="N5" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="O5" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P5" t="n">
         <v>5</v>
@@ -1924,50 +2568,50 @@
         <v>43</v>
       </c>
       <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
         <v>71</v>
       </c>
-      <c r="G6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H6" t="s">
-        <v>46</v>
-      </c>
-      <c r="I6" t="s">
+      <c r="J6" t="s">
         <v>72</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>73</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>74</v>
       </c>
-      <c r="L6" t="s">
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="s">
         <v>75</v>
       </c>
-      <c r="M6" t="n">
-        <v>5</v>
-      </c>
-      <c r="N6" t="s">
-        <v>70</v>
-      </c>
       <c r="O6" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="P6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="Q6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1975,7 +2619,7 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="7">
@@ -1991,7 +2635,7 @@
         <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G7" t="s">
         <v>45</v>
@@ -2000,44 +2644,50 @@
         <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J7" t="s">
-        <v>78</v>
-      </c>
-      <c r="K7" t="s"/>
-      <c r="L7" t="s"/>
+        <v>79</v>
+      </c>
+      <c r="K7" t="s">
+        <v>80</v>
+      </c>
+      <c r="L7" t="s">
+        <v>81</v>
+      </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P7" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T7" t="s"/>
       <c r="U7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
-      <c r="Y7" t="s"/>
+      <c r="Y7" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -2052,7 +2702,7 @@
         <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
         <v>45</v>
@@ -2061,38 +2711,32 @@
         <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="J8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="K8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="L8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>88</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="n">
-        <v>4</v>
-      </c>
+      <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="n">
-        <v>5</v>
-      </c>
+      <c r="U8" t="s"/>
       <c r="V8" t="n">
         <v>0</v>
       </c>
@@ -2115,7 +2759,7 @@
         <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G9" t="s">
         <v>45</v>
@@ -2124,28 +2768,28 @@
         <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="J9" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q9" t="n">
         <v>5</v>
@@ -2158,7 +2802,7 @@
       </c>
       <c r="T9" t="s"/>
       <c r="U9" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -2166,7 +2810,7 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10">
@@ -2182,7 +2826,7 @@
         <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G10" t="s">
         <v>45</v>
@@ -2191,25 +2835,25 @@
         <v>46</v>
       </c>
       <c r="I10" t="s">
+        <v>96</v>
+      </c>
+      <c r="J10" t="s">
+        <v>97</v>
+      </c>
+      <c r="K10" t="s">
+        <v>98</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
         <v>94</v>
       </c>
-      <c r="J10" t="s">
-        <v>95</v>
-      </c>
-      <c r="K10" t="s">
-        <v>96</v>
-      </c>
-      <c r="L10" t="s">
-        <v>97</v>
-      </c>
-      <c r="M10" t="n">
-        <v>5</v>
-      </c>
-      <c r="N10" t="s">
-        <v>98</v>
-      </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2233,7 +2877,7 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11">
@@ -2249,7 +2893,7 @@
         <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G11" t="s">
         <v>45</v>
@@ -2258,44 +2902,44 @@
         <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="J11" t="s">
-        <v>101</v>
-      </c>
-      <c r="K11" t="s">
         <v>102</v>
       </c>
-      <c r="L11" t="s">
+      <c r="K11" t="s"/>
+      <c r="L11" t="s"/>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
         <v>103</v>
       </c>
-      <c r="M11" t="n">
-        <v>1</v>
-      </c>
-      <c r="N11" t="s">
-        <v>104</v>
-      </c>
       <c r="O11" t="s">
-        <v>105</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="s"/>
-      <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P11" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="n">
+        <v>5</v>
+      </c>
+      <c r="S11" t="n">
+        <v>5</v>
+      </c>
       <c r="T11" t="s"/>
-      <c r="U11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>106</v>
-      </c>
-      <c r="X11" t="s">
-        <v>107</v>
-      </c>
-      <c r="Y11" t="s">
-        <v>108</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -2310,7 +2954,7 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G12" t="s">
         <v>45</v>
@@ -2319,41 +2963,41 @@
         <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="J12" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="K12" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="L12" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="M12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="O12" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="P12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T12" t="s"/>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -2361,7 +3005,7 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13">
@@ -2377,7 +3021,7 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="G13" t="s">
         <v>45</v>
@@ -2386,14 +3030,16 @@
         <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>118</v>
-      </c>
-      <c r="K13" t="s"/>
+        <v>111</v>
+      </c>
+      <c r="K13" t="s">
+        <v>112</v>
+      </c>
       <c r="L13" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M13" t="n">
         <v>5</v>
@@ -2402,17 +3048,11 @@
         <v>114</v>
       </c>
       <c r="O13" t="s">
-        <v>105</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>5</v>
-      </c>
-      <c r="R13" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
       <c r="S13" t="n">
         <v>5</v>
       </c>
@@ -2426,7 +3066,7 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14">
@@ -2442,7 +3082,7 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G14" t="s">
         <v>45</v>
@@ -2451,37 +3091,33 @@
         <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="M14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>52</v>
-      </c>
-      <c r="P14" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>5</v>
-      </c>
-      <c r="R14" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R14" t="s"/>
       <c r="S14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
@@ -2493,7 +3129,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
@@ -2509,7 +3145,7 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -2518,16 +3154,16 @@
         <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
@@ -2536,10 +3172,10 @@
         <v>126</v>
       </c>
       <c r="O15" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
         <v>5</v>
@@ -2552,7 +3188,7 @@
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2560,7 +3196,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
     </row>
     <row r="16">
@@ -2576,48 +3212,58 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
+        <v>127</v>
+      </c>
+      <c r="G16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H16" t="s">
+        <v>46</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" t="s">
+        <v>130</v>
+      </c>
+      <c r="L16" t="s">
+        <v>131</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
         <v>132</v>
       </c>
-      <c r="G16" t="s">
-        <v>45</v>
-      </c>
-      <c r="H16" t="s">
-        <v>46</v>
-      </c>
-      <c r="I16" t="s">
-        <v>133</v>
-      </c>
-      <c r="J16" t="s">
-        <v>134</v>
-      </c>
-      <c r="K16" t="s">
-        <v>135</v>
-      </c>
-      <c r="L16" t="s">
-        <v>136</v>
-      </c>
-      <c r="M16" t="n">
-        <v>3</v>
-      </c>
-      <c r="N16" t="s">
-        <v>137</v>
-      </c>
       <c r="O16" t="s">
-        <v>105</v>
-      </c>
-      <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="s"/>
+        <v>64</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17">
@@ -2633,7 +3279,7 @@
         <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="G17" t="s">
         <v>45</v>
@@ -2642,41 +3288,41 @@
         <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="J17" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="K17" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="L17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="M17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
         <v>64</v>
       </c>
       <c r="P17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R17" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T17" t="s"/>
       <c r="U17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -2684,7 +3330,7 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="18">
@@ -2700,7 +3346,7 @@
         <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="G18" t="s">
         <v>45</v>
@@ -2709,22 +3355,22 @@
         <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="J18" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="K18" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="L18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="M18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
         <v>52</v>
@@ -2741,7 +3387,7 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19">
@@ -2757,58 +3403,52 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
+        <v>145</v>
+      </c>
+      <c r="G19" t="s">
+        <v>45</v>
+      </c>
+      <c r="H19" t="s">
+        <v>46</v>
+      </c>
+      <c r="I19" t="s">
+        <v>146</v>
+      </c>
+      <c r="J19" t="s">
+        <v>147</v>
+      </c>
+      <c r="K19" t="s">
+        <v>148</v>
+      </c>
+      <c r="L19" t="s">
+        <v>149</v>
+      </c>
+      <c r="M19" t="n">
+        <v>1</v>
+      </c>
+      <c r="N19" t="s">
+        <v>144</v>
+      </c>
+      <c r="O19" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>150</v>
+      </c>
+      <c r="X19" t="s">
         <v>151</v>
       </c>
-      <c r="G19" t="s">
-        <v>45</v>
-      </c>
-      <c r="H19" t="s">
-        <v>46</v>
-      </c>
-      <c r="I19" t="s">
+      <c r="Y19" t="s">
         <v>152</v>
-      </c>
-      <c r="J19" t="s">
-        <v>153</v>
-      </c>
-      <c r="K19" t="s">
-        <v>154</v>
-      </c>
-      <c r="L19" t="s">
-        <v>155</v>
-      </c>
-      <c r="M19" t="n">
-        <v>5</v>
-      </c>
-      <c r="N19" t="s">
-        <v>156</v>
-      </c>
-      <c r="O19" t="s">
-        <v>105</v>
-      </c>
-      <c r="P19" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="n">
-        <v>5</v>
-      </c>
-      <c r="T19" t="s"/>
-      <c r="U19" t="n">
-        <v>5</v>
-      </c>
-      <c r="V19" t="n">
-        <v>0</v>
-      </c>
-      <c r="W19" t="s"/>
-      <c r="X19" t="s"/>
-      <c r="Y19" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="20">
@@ -2824,50 +3464,50 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
+        <v>153</v>
+      </c>
+      <c r="G20" t="s">
+        <v>45</v>
+      </c>
+      <c r="H20" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" t="s">
+        <v>155</v>
+      </c>
+      <c r="K20" t="s">
+        <v>156</v>
+      </c>
+      <c r="L20" t="s">
         <v>157</v>
       </c>
-      <c r="G20" t="s">
-        <v>45</v>
-      </c>
-      <c r="H20" t="s">
-        <v>46</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
         <v>158</v>
-      </c>
-      <c r="J20" t="s">
-        <v>159</v>
-      </c>
-      <c r="K20" t="s">
-        <v>160</v>
-      </c>
-      <c r="L20" t="s">
-        <v>161</v>
-      </c>
-      <c r="M20" t="n">
-        <v>4</v>
-      </c>
-      <c r="N20" t="s">
-        <v>162</v>
       </c>
       <c r="O20" t="s">
         <v>52</v>
       </c>
       <c r="P20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q20" t="n">
         <v>4</v>
       </c>
       <c r="R20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -2875,7 +3515,7 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21">
@@ -2891,50 +3531,48 @@
         <v>43</v>
       </c>
       <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>45</v>
+      </c>
+      <c r="H21" t="s">
+        <v>46</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s">
         <v>163</v>
       </c>
-      <c r="G21" t="s">
-        <v>45</v>
-      </c>
-      <c r="H21" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21" t="s">
-        <v>165</v>
-      </c>
-      <c r="K21" t="s">
-        <v>166</v>
-      </c>
-      <c r="L21" t="s">
-        <v>167</v>
-      </c>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="O21" t="s">
         <v>52</v>
       </c>
       <c r="P21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S21" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -2942,7 +3580,7 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
     </row>
     <row r="22">
@@ -2958,34 +3596,34 @@
         <v>43</v>
       </c>
       <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>45</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
         <v>169</v>
       </c>
-      <c r="G22" t="s">
-        <v>45</v>
-      </c>
-      <c r="H22" t="s">
-        <v>46</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
         <v>170</v>
       </c>
-      <c r="J22" t="s">
-        <v>171</v>
-      </c>
-      <c r="K22" t="s">
-        <v>172</v>
-      </c>
-      <c r="L22" t="s">
-        <v>173</v>
-      </c>
-      <c r="M22" t="n">
-        <v>5</v>
-      </c>
-      <c r="N22" t="s">
-        <v>168</v>
-      </c>
       <c r="O22" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="P22" t="n">
         <v>5</v>
@@ -2993,9 +3631,7 @@
       <c r="Q22" t="n">
         <v>5</v>
       </c>
-      <c r="R22" t="n">
-        <v>5</v>
-      </c>
+      <c r="R22" t="s"/>
       <c r="S22" t="n">
         <v>5</v>
       </c>
@@ -3009,7 +3645,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23">
@@ -3025,50 +3661,50 @@
         <v>43</v>
       </c>
       <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" t="s">
+        <v>46</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
         <v>175</v>
       </c>
-      <c r="G23" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" t="s">
-        <v>46</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
         <v>176</v>
       </c>
-      <c r="J23" t="s">
-        <v>177</v>
-      </c>
-      <c r="K23" t="s">
-        <v>178</v>
-      </c>
-      <c r="L23" t="s">
-        <v>179</v>
-      </c>
-      <c r="M23" t="n">
-        <v>4</v>
-      </c>
-      <c r="N23" t="s">
-        <v>180</v>
-      </c>
       <c r="O23" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="P23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T23" t="s"/>
       <c r="U23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -3076,7 +3712,7 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="24">
@@ -3092,7 +3728,7 @@
         <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G24" t="s">
         <v>45</v>
@@ -3101,25 +3737,25 @@
         <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="K24" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="L24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="M24" t="n">
         <v>5</v>
       </c>
       <c r="N24" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O24" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -3143,7 +3779,7 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="25">
@@ -3159,7 +3795,7 @@
         <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
         <v>45</v>
@@ -3168,25 +3804,25 @@
         <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="K25" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="L25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="M25" t="n">
         <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="O25" t="s">
-        <v>174</v>
+        <v>64</v>
       </c>
       <c r="P25" t="n">
         <v>5</v>
@@ -3194,8 +3830,12 @@
       <c r="Q25" t="n">
         <v>5</v>
       </c>
-      <c r="R25" t="s"/>
-      <c r="S25" t="s"/>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
         <v>5</v>
@@ -3206,7 +3846,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="26">
@@ -3222,58 +3862,48 @@
         <v>43</v>
       </c>
       <c r="F26" t="s">
+        <v>187</v>
+      </c>
+      <c r="G26" t="s">
+        <v>45</v>
+      </c>
+      <c r="H26" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>189</v>
+      </c>
+      <c r="K26" t="s">
+        <v>190</v>
+      </c>
+      <c r="L26" t="s">
+        <v>191</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
         <v>192</v>
-      </c>
-      <c r="G26" t="s">
-        <v>45</v>
-      </c>
-      <c r="H26" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" t="s">
-        <v>193</v>
-      </c>
-      <c r="J26" t="s">
-        <v>194</v>
-      </c>
-      <c r="K26" t="s">
-        <v>195</v>
-      </c>
-      <c r="L26" t="s">
-        <v>196</v>
-      </c>
-      <c r="M26" t="n">
-        <v>5</v>
-      </c>
-      <c r="N26" t="s">
-        <v>197</v>
       </c>
       <c r="O26" t="s">
         <v>52</v>
       </c>
-      <c r="P26" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
-      <c r="R26" t="n">
-        <v>5</v>
-      </c>
-      <c r="S26" t="n">
-        <v>5</v>
-      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="n">
-        <v>5</v>
-      </c>
+      <c r="U26" t="s"/>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="27">
@@ -3289,47 +3919,39 @@
         <v>43</v>
       </c>
       <c r="F27" t="s">
+        <v>194</v>
+      </c>
+      <c r="G27" t="s">
+        <v>45</v>
+      </c>
+      <c r="H27" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>196</v>
+      </c>
+      <c r="K27" t="s">
+        <v>197</v>
+      </c>
+      <c r="L27" t="s">
         <v>198</v>
       </c>
-      <c r="G27" t="s">
-        <v>45</v>
-      </c>
-      <c r="H27" t="s">
-        <v>46</v>
-      </c>
-      <c r="I27" t="s">
-        <v>199</v>
-      </c>
-      <c r="J27" t="s">
-        <v>200</v>
-      </c>
-      <c r="K27" t="s">
-        <v>201</v>
-      </c>
-      <c r="L27" t="s">
-        <v>202</v>
-      </c>
       <c r="M27" t="n">
         <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="O27" t="s">
-        <v>105</v>
-      </c>
-      <c r="P27" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>5</v>
-      </c>
-      <c r="R27" t="n">
-        <v>4</v>
-      </c>
-      <c r="S27" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
       <c r="T27" t="s"/>
       <c r="U27" t="n">
         <v>5</v>
@@ -3340,7 +3962,7 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="28">
@@ -3356,34 +3978,34 @@
         <v>43</v>
       </c>
       <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+      <c r="H28" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" t="s">
+        <v>201</v>
+      </c>
+      <c r="J28" t="s">
+        <v>202</v>
+      </c>
+      <c r="K28" t="s">
         <v>203</v>
       </c>
-      <c r="G28" t="s">
-        <v>45</v>
-      </c>
-      <c r="H28" t="s">
-        <v>46</v>
-      </c>
-      <c r="I28" t="s">
+      <c r="L28" t="s">
         <v>204</v>
       </c>
-      <c r="J28" t="s">
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>192</v>
+      </c>
+      <c r="O28" t="s">
         <v>205</v>
-      </c>
-      <c r="K28" t="s">
-        <v>206</v>
-      </c>
-      <c r="L28" t="s">
-        <v>207</v>
-      </c>
-      <c r="M28" t="n">
-        <v>4</v>
-      </c>
-      <c r="N28" t="s">
-        <v>197</v>
-      </c>
-      <c r="O28" t="s">
-        <v>52</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -3397,7 +4019,7 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="29">
@@ -3413,41 +4035,47 @@
         <v>43</v>
       </c>
       <c r="F29" t="s">
+        <v>206</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+      <c r="H29" t="s">
+        <v>46</v>
+      </c>
+      <c r="I29" t="s">
+        <v>207</v>
+      </c>
+      <c r="J29" t="s">
         <v>208</v>
       </c>
-      <c r="G29" t="s">
-        <v>45</v>
-      </c>
-      <c r="H29" t="s">
-        <v>46</v>
-      </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>209</v>
       </c>
-      <c r="J29" t="s">
+      <c r="L29" t="s">
         <v>210</v>
       </c>
-      <c r="K29" t="s">
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
         <v>211</v>
       </c>
-      <c r="L29" t="s">
-        <v>212</v>
-      </c>
-      <c r="M29" t="n">
-        <v>4</v>
-      </c>
-      <c r="N29" t="s">
-        <v>213</v>
-      </c>
       <c r="O29" t="s">
-        <v>174</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>3</v>
+      </c>
       <c r="R29" t="n">
-        <v>5</v>
-      </c>
-      <c r="S29" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
       <c r="T29" t="s"/>
       <c r="U29" t="n">
         <v>3</v>
@@ -3458,7 +4086,7 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="30">
@@ -3474,31 +4102,35 @@
         <v>43</v>
       </c>
       <c r="F30" t="s">
+        <v>212</v>
+      </c>
+      <c r="G30" t="s">
+        <v>45</v>
+      </c>
+      <c r="H30" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" t="s">
+        <v>213</v>
+      </c>
+      <c r="J30" t="s">
+        <v>214</v>
+      </c>
+      <c r="K30" t="s">
         <v>215</v>
       </c>
-      <c r="G30" t="s">
-        <v>45</v>
-      </c>
-      <c r="H30" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
+      <c r="L30" t="s">
         <v>216</v>
       </c>
-      <c r="J30" t="s">
-        <v>210</v>
-      </c>
-      <c r="K30" t="s">
+      <c r="M30" t="n">
+        <v>2</v>
+      </c>
+      <c r="N30" t="s">
         <v>217</v>
       </c>
-      <c r="L30" t="s">
-        <v>218</v>
-      </c>
-      <c r="M30" t="n">
-        <v>5</v>
-      </c>
-      <c r="N30" t="s"/>
-      <c r="O30" t="s"/>
+      <c r="O30" t="s">
+        <v>64</v>
+      </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
       <c r="R30" t="s"/>
@@ -3511,7 +4143,7 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="31">
@@ -3527,46 +4159,46 @@
         <v>43</v>
       </c>
       <c r="F31" t="s">
+        <v>218</v>
+      </c>
+      <c r="G31" t="s">
+        <v>45</v>
+      </c>
+      <c r="H31" t="s">
+        <v>46</v>
+      </c>
+      <c r="I31" t="s">
         <v>219</v>
       </c>
-      <c r="G31" t="s">
-        <v>45</v>
-      </c>
-      <c r="H31" t="s">
-        <v>46</v>
-      </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>220</v>
       </c>
-      <c r="J31" t="s">
+      <c r="K31" t="s">
         <v>221</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>222</v>
       </c>
-      <c r="L31" t="s">
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
         <v>223</v>
-      </c>
-      <c r="M31" t="n">
-        <v>3</v>
-      </c>
-      <c r="N31" t="s">
-        <v>224</v>
       </c>
       <c r="O31" t="s">
         <v>52</v>
       </c>
       <c r="P31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S31" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T31" t="s"/>
       <c r="U31" t="n">
@@ -3578,7 +4210,7 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="32">
@@ -3594,53 +4226,59 @@
         <v>43</v>
       </c>
       <c r="F32" t="s">
+        <v>224</v>
+      </c>
+      <c r="G32" t="s">
+        <v>45</v>
+      </c>
+      <c r="H32" t="s">
+        <v>46</v>
+      </c>
+      <c r="I32" t="s">
         <v>225</v>
       </c>
-      <c r="G32" t="s">
-        <v>45</v>
-      </c>
-      <c r="H32" t="s">
-        <v>46</v>
-      </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>226</v>
       </c>
-      <c r="J32" t="s">
+      <c r="K32" t="s">
         <v>227</v>
       </c>
-      <c r="K32" t="s"/>
-      <c r="L32" t="s"/>
+      <c r="L32" t="s">
+        <v>228</v>
+      </c>
       <c r="M32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N32" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="O32" t="s">
-        <v>52</v>
+        <v>76</v>
       </c>
       <c r="P32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R32" t="n">
         <v>5</v>
       </c>
       <c r="S32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
-      <c r="Y32" t="s"/>
+      <c r="Y32" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -3682,14 +4320,20 @@
         <v>234</v>
       </c>
       <c r="O33" t="s">
-        <v>174</v>
-      </c>
-      <c r="P33" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P33" t="n">
+        <v>5</v>
+      </c>
       <c r="Q33" t="s"/>
-      <c r="R33" t="s"/>
+      <c r="R33" t="n">
+        <v>5</v>
+      </c>
       <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="s"/>
+      <c r="U33" t="n">
+        <v>5</v>
+      </c>
       <c r="V33" t="n">
         <v>0</v>
       </c>
@@ -3733,19 +4377,19 @@
         <v>239</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
         <v>234</v>
       </c>
       <c r="O34" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="P34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R34" t="n">
         <v>5</v>
@@ -3763,7 +4407,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
@@ -3779,44 +4423,58 @@
         <v>43</v>
       </c>
       <c r="F35" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" t="s">
+        <v>45</v>
+      </c>
+      <c r="H35" t="s">
+        <v>46</v>
+      </c>
+      <c r="I35" t="s">
         <v>241</v>
       </c>
-      <c r="G35" t="s">
-        <v>45</v>
-      </c>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>242</v>
       </c>
-      <c r="J35" t="s">
+      <c r="K35" t="s">
         <v>243</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>244</v>
       </c>
-      <c r="L35" t="s">
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
         <v>245</v>
       </c>
-      <c r="M35" t="n">
-        <v>5</v>
-      </c>
-      <c r="N35" t="s"/>
-      <c r="O35" t="s"/>
-      <c r="P35" t="s"/>
-      <c r="Q35" t="s"/>
-      <c r="R35" t="s"/>
-      <c r="S35" t="s"/>
+      <c r="O35" t="s">
+        <v>64</v>
+      </c>
+      <c r="P35" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>4</v>
+      </c>
       <c r="T35" t="s"/>
-      <c r="U35" t="s"/>
+      <c r="U35" t="n">
+        <v>3</v>
+      </c>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="36">
@@ -3853,25 +4511,29 @@
         <v>250</v>
       </c>
       <c r="M36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="O36" t="s">
-        <v>64</v>
-      </c>
-      <c r="P36" t="s"/>
+        <v>205</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
       <c r="Q36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R36" t="n">
-        <v>3</v>
-      </c>
-      <c r="S36" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -3879,7 +4541,7 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="37">
@@ -3895,53 +4557,59 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
+        <v>251</v>
+      </c>
+      <c r="G37" t="s">
+        <v>45</v>
+      </c>
+      <c r="H37" t="s">
+        <v>46</v>
+      </c>
+      <c r="I37" t="s">
+        <v>252</v>
+      </c>
+      <c r="J37" t="s">
         <v>253</v>
       </c>
-      <c r="G37" t="s">
-        <v>45</v>
-      </c>
-      <c r="H37" t="s">
-        <v>46</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>254</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>255</v>
       </c>
-      <c r="K37" t="s"/>
-      <c r="L37" t="s"/>
       <c r="M37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="O37" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="P37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S37" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
-      <c r="Y37" t="s"/>
+      <c r="Y37" t="s">
+        <v>255</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -3956,7 +4624,7 @@
         <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="G38" t="s">
         <v>45</v>
@@ -3965,31 +4633,31 @@
         <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J38" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="K38" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="L38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="O38" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R38" t="n">
         <v>5</v>
@@ -3999,7 +4667,7 @@
       </c>
       <c r="T38" t="s"/>
       <c r="U38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -4007,7 +4675,7 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
     </row>
     <row r="39">
@@ -4023,7 +4691,7 @@
         <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G39" t="s">
         <v>45</v>
@@ -4032,28 +4700,28 @@
         <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="J39" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="K39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="L39" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="M39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O39" t="s">
         <v>52</v>
       </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
         <v>4</v>
@@ -4062,11 +4730,11 @@
         <v>4</v>
       </c>
       <c r="S39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -4074,7 +4742,7 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40">
@@ -4090,34 +4758,34 @@
         <v>43</v>
       </c>
       <c r="F40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G40" t="s">
+        <v>45</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="I40" t="s">
+        <v>271</v>
+      </c>
+      <c r="J40" t="s">
+        <v>272</v>
+      </c>
+      <c r="K40" t="s">
+        <v>273</v>
+      </c>
+      <c r="L40" t="s">
+        <v>274</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
         <v>268</v>
       </c>
-      <c r="G40" t="s">
-        <v>45</v>
-      </c>
-      <c r="H40" t="s">
-        <v>46</v>
-      </c>
-      <c r="I40" t="s">
-        <v>269</v>
-      </c>
-      <c r="J40" t="s">
-        <v>264</v>
-      </c>
-      <c r="K40" t="s">
-        <v>270</v>
-      </c>
-      <c r="L40" t="s">
-        <v>271</v>
-      </c>
-      <c r="M40" t="n">
-        <v>5</v>
-      </c>
-      <c r="N40" t="s">
-        <v>261</v>
-      </c>
       <c r="O40" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4141,7 +4809,7 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41">
@@ -4157,7 +4825,7 @@
         <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -4166,41 +4834,37 @@
         <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="J41" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="K41" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="L41" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="M41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N41" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="O41" t="s">
-        <v>174</v>
+        <v>205</v>
       </c>
       <c r="P41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q41" t="n">
-        <v>4</v>
-      </c>
-      <c r="R41" t="n">
-        <v>4</v>
-      </c>
-      <c r="S41" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -4208,7 +4872,7 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42">
@@ -4224,7 +4888,7 @@
         <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G42" t="s">
         <v>45</v>
@@ -4233,30 +4897,28 @@
         <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="J42" t="s">
-        <v>280</v>
-      </c>
-      <c r="K42" t="s"/>
+        <v>282</v>
+      </c>
+      <c r="K42" t="s">
+        <v>283</v>
+      </c>
       <c r="L42" t="s">
-        <v>119</v>
+        <v>284</v>
       </c>
       <c r="M42" t="n">
         <v>5</v>
       </c>
       <c r="N42" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="O42" t="s">
         <v>52</v>
       </c>
-      <c r="P42" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>5</v>
-      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
       <c r="R42" t="n">
         <v>5</v>
       </c>
@@ -4273,7 +4935,7 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
     </row>
     <row r="43">
@@ -4289,7 +4951,7 @@
         <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G43" t="s">
         <v>45</v>
@@ -4298,27 +4960,31 @@
         <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="J43" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="K43" t="s">
+        <v>289</v>
+      </c>
+      <c r="L43" t="s">
+        <v>290</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
         <v>285</v>
       </c>
-      <c r="L43" t="s">
-        <v>286</v>
-      </c>
-      <c r="M43" t="n">
-        <v>5</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R43" t="n">
         <v>5</v>
@@ -4328,7 +4994,7 @@
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -4336,7 +5002,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="44">
@@ -4352,7 +5018,7 @@
         <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="G44" t="s">
         <v>45</v>
@@ -4361,25 +5027,25 @@
         <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="J44" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="K44" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="L44" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
       </c>
       <c r="N44" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="O44" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P44" t="n">
         <v>5</v>
@@ -4403,7 +5069,7 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
     </row>
     <row r="45">
@@ -4419,7 +5085,7 @@
         <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="G45" t="s">
         <v>45</v>
@@ -4428,34 +5094,34 @@
         <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="J45" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="K45" t="s">
-        <v>154</v>
+        <v>300</v>
       </c>
       <c r="L45" t="s">
+        <v>301</v>
+      </c>
+      <c r="M45" t="n">
+        <v>5</v>
+      </c>
+      <c r="N45" t="s">
         <v>296</v>
       </c>
-      <c r="M45" t="n">
-        <v>5</v>
-      </c>
-      <c r="N45" t="s">
-        <v>292</v>
-      </c>
       <c r="O45" t="s">
-        <v>105</v>
+        <v>52</v>
       </c>
       <c r="P45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q45" t="n">
         <v>5</v>
       </c>
       <c r="R45" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -4470,7 +5136,7 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="46">
@@ -4486,7 +5152,7 @@
         <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G46" t="s">
         <v>45</v>
@@ -4495,44 +5161,40 @@
         <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="J46" t="s">
-        <v>299</v>
-      </c>
-      <c r="K46" t="s"/>
-      <c r="L46" t="s"/>
+        <v>304</v>
+      </c>
+      <c r="K46" t="s">
+        <v>305</v>
+      </c>
+      <c r="L46" t="s">
+        <v>306</v>
+      </c>
       <c r="M46" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="O46" t="s">
-        <v>105</v>
-      </c>
-      <c r="P46" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>5</v>
-      </c>
-      <c r="R46" t="n">
-        <v>5</v>
-      </c>
-      <c r="S46" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>5</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
-      <c r="Y46" t="s"/>
+      <c r="Y46" t="s">
+        <v>306</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -4547,7 +5209,7 @@
         <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="G47" t="s">
         <v>45</v>
@@ -4556,49 +5218,39 @@
         <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="J47" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="K47" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
       <c r="L47" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="O47" t="s">
-        <v>105</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>5</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48">
@@ -4614,7 +5266,7 @@
         <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G48" t="s">
         <v>45</v>
@@ -4623,41 +5275,41 @@
         <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="J48" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="K48" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="L48" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="O48" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="P48" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
@@ -4665,7 +5317,7 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="49">
@@ -4681,7 +5333,7 @@
         <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="G49" t="s">
         <v>45</v>
@@ -4690,41 +5342,35 @@
         <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="J49" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="K49" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L49" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="M49" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N49" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="O49" t="s">
-        <v>52</v>
-      </c>
-      <c r="P49" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>5</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
       <c r="R49" t="n">
         <v>5</v>
       </c>
-      <c r="S49" t="n">
-        <v>5</v>
-      </c>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
@@ -4732,7 +5378,7 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="50">
@@ -4748,7 +5394,7 @@
         <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="G50" t="s">
         <v>45</v>
@@ -4757,49 +5403,35 @@
         <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="J50" t="s">
         <v>321</v>
       </c>
       <c r="K50" t="s">
-        <v>322</v>
+        <v>328</v>
       </c>
       <c r="L50" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
-      <c r="N50" t="s">
-        <v>324</v>
-      </c>
-      <c r="O50" t="s">
-        <v>174</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>5</v>
-      </c>
-      <c r="R50" t="n">
-        <v>5</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+      <c r="N50" t="s"/>
+      <c r="O50" t="s"/>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>323</v>
+        <v>329</v>
       </c>
     </row>
     <row r="51">
@@ -4815,7 +5447,7 @@
         <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="G51" t="s">
         <v>45</v>
@@ -4824,37 +5456,37 @@
         <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="J51" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K51" t="s">
-        <v>328</v>
+        <v>333</v>
       </c>
       <c r="L51" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>330</v>
+        <v>335</v>
       </c>
       <c r="O51" t="s">
         <v>64</v>
       </c>
       <c r="P51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
@@ -4866,7 +5498,7 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>329</v>
+        <v>334</v>
       </c>
     </row>
     <row r="52">
@@ -4882,7 +5514,7 @@
         <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>331</v>
+        <v>336</v>
       </c>
       <c r="G52" t="s">
         <v>45</v>
@@ -4891,30 +5523,32 @@
         <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="J52" t="s">
-        <v>333</v>
+        <v>338</v>
       </c>
       <c r="K52" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="L52" t="s">
+        <v>340</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s">
         <v>335</v>
       </c>
-      <c r="M52" t="n">
-        <v>2</v>
-      </c>
-      <c r="N52" t="s">
-        <v>330</v>
-      </c>
       <c r="O52" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
       </c>
-      <c r="Q52" t="s"/>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
       <c r="R52" t="n">
         <v>5</v>
       </c>
@@ -4931,7 +5565,7 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>335</v>
+        <v>340</v>
       </c>
     </row>
     <row r="53">
@@ -4947,7 +5581,7 @@
         <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>336</v>
+        <v>341</v>
       </c>
       <c r="G53" t="s">
         <v>45</v>
@@ -4956,38 +5590,34 @@
         <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="J53" t="s">
-        <v>338</v>
+        <v>343</v>
       </c>
       <c r="K53" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="L53" t="s">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O53" t="s">
-        <v>105</v>
+        <v>205</v>
       </c>
       <c r="P53" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q53" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q53" t="s"/>
       <c r="R53" t="n">
-        <v>5</v>
-      </c>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -4998,7 +5628,7 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
     </row>
     <row r="54">
@@ -5014,7 +5644,7 @@
         <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="G54" t="s">
         <v>45</v>
@@ -5023,35 +5653,33 @@
         <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>343</v>
+        <v>349</v>
       </c>
       <c r="J54" t="s">
-        <v>344</v>
+        <v>350</v>
       </c>
       <c r="K54" t="s"/>
-      <c r="L54" t="s">
-        <v>119</v>
-      </c>
+      <c r="L54" t="s"/>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>341</v>
+        <v>346</v>
       </c>
       <c r="O54" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="P54" t="n">
         <v>4</v>
       </c>
       <c r="Q54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
@@ -5062,9 +5690,7 @@
       </c>
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
-      <c r="Y54" t="s">
-        <v>120</v>
-      </c>
+      <c r="Y54" t="s"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -5079,7 +5705,7 @@
         <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>345</v>
+        <v>351</v>
       </c>
       <c r="G55" t="s">
         <v>45</v>
@@ -5088,49 +5714,39 @@
         <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>346</v>
+        <v>352</v>
       </c>
       <c r="J55" t="s">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="K55" t="s">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="L55" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
       <c r="M55" t="n">
         <v>5</v>
       </c>
       <c r="N55" t="s">
-        <v>350</v>
+        <v>356</v>
       </c>
       <c r="O55" t="s">
-        <v>105</v>
-      </c>
-      <c r="P55" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>4</v>
-      </c>
-      <c r="S55" t="n">
-        <v>5</v>
-      </c>
+        <v>205</v>
+      </c>
+      <c r="P55" t="s"/>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
+      <c r="S55" t="s"/>
       <c r="T55" t="s"/>
-      <c r="U55" t="n">
-        <v>4</v>
-      </c>
+      <c r="U55" t="s"/>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>349</v>
+        <v>355</v>
       </c>
     </row>
     <row r="56">
@@ -5146,7 +5762,7 @@
         <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>351</v>
+        <v>357</v>
       </c>
       <c r="G56" t="s">
         <v>45</v>
@@ -5155,24 +5771,28 @@
         <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>352</v>
+        <v>358</v>
       </c>
       <c r="J56" t="s">
-        <v>353</v>
+        <v>359</v>
       </c>
       <c r="K56" t="s">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L56" t="s">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
-      </c>
-      <c r="N56" t="s"/>
-      <c r="O56" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>356</v>
+      </c>
+      <c r="O56" t="s">
+        <v>52</v>
+      </c>
       <c r="P56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q56" t="n">
         <v>5</v>
@@ -5193,7 +5813,7 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>355</v>
+        <v>362</v>
       </c>
     </row>
     <row r="57">
@@ -5209,54 +5829,48 @@
         <v>43</v>
       </c>
       <c r="F57" t="s">
+        <v>363</v>
+      </c>
+      <c r="G57" t="s">
+        <v>45</v>
+      </c>
+      <c r="H57" t="s">
+        <v>46</v>
+      </c>
+      <c r="I57" t="s">
+        <v>364</v>
+      </c>
+      <c r="J57" t="s">
+        <v>365</v>
+      </c>
+      <c r="K57" t="s">
+        <v>366</v>
+      </c>
+      <c r="L57" t="s">
+        <v>367</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
         <v>356</v>
       </c>
-      <c r="G57" t="s">
-        <v>45</v>
-      </c>
-      <c r="H57" t="s">
-        <v>46</v>
-      </c>
-      <c r="I57" t="s">
-        <v>357</v>
-      </c>
-      <c r="J57" t="s">
-        <v>358</v>
-      </c>
-      <c r="K57" t="s">
-        <v>359</v>
-      </c>
-      <c r="L57" t="s">
-        <v>360</v>
-      </c>
-      <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="s">
-        <v>361</v>
-      </c>
       <c r="O57" t="s">
-        <v>105</v>
-      </c>
-      <c r="P57" t="n">
-        <v>3</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="P57" t="s"/>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
-      <c r="S57" t="n">
-        <v>1</v>
-      </c>
+      <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="n">
-        <v>3</v>
-      </c>
+      <c r="U57" t="s"/>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>362</v>
+        <v>367</v>
       </c>
     </row>
     <row r="58">
@@ -5272,7 +5886,7 @@
         <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="G58" t="s">
         <v>45</v>
@@ -5281,41 +5895,37 @@
         <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>364</v>
+        <v>369</v>
       </c>
       <c r="J58" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="K58" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="L58" t="s">
-        <v>367</v>
+        <v>372</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N58" t="s">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="O58" t="s">
         <v>52</v>
       </c>
-      <c r="P58" t="n">
-        <v>2</v>
-      </c>
+      <c r="P58" t="s"/>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R58" t="n">
-        <v>3</v>
-      </c>
-      <c r="S58" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="S58" t="s"/>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
@@ -5323,7 +5933,7 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>367</v>
+        <v>374</v>
       </c>
     </row>
     <row r="59">
@@ -5339,7 +5949,7 @@
         <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="G59" t="s">
         <v>45</v>
@@ -5348,49 +5958,2655 @@
         <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>370</v>
+        <v>376</v>
       </c>
       <c r="J59" t="s">
-        <v>371</v>
+        <v>377</v>
       </c>
       <c r="K59" t="s">
-        <v>372</v>
+        <v>378</v>
       </c>
       <c r="L59" t="s">
-        <v>373</v>
+        <v>379</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
-      <c r="N59" t="s">
-        <v>374</v>
-      </c>
-      <c r="O59" t="s">
-        <v>52</v>
-      </c>
-      <c r="P59" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>5</v>
-      </c>
-      <c r="R59" t="n">
-        <v>4</v>
-      </c>
-      <c r="S59" t="n">
-        <v>5</v>
-      </c>
+      <c r="N59" t="s"/>
+      <c r="O59" t="s"/>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="s"/>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
-      <c r="U59" t="n">
-        <v>4</v>
-      </c>
+      <c r="U59" t="s"/>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>373</v>
+        <v>379</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>43</v>
+      </c>
+      <c r="F60" t="s">
+        <v>380</v>
+      </c>
+      <c r="G60" t="s">
+        <v>45</v>
+      </c>
+      <c r="H60" t="s">
+        <v>46</v>
+      </c>
+      <c r="I60" t="s">
+        <v>381</v>
+      </c>
+      <c r="J60" t="s">
+        <v>382</v>
+      </c>
+      <c r="K60" t="s">
+        <v>383</v>
+      </c>
+      <c r="L60" t="s">
+        <v>384</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>385</v>
+      </c>
+      <c r="O60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P60" t="s"/>
+      <c r="Q60" t="n">
+        <v>1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="s"/>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>1</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>43</v>
+      </c>
+      <c r="F61" t="s">
+        <v>387</v>
+      </c>
+      <c r="G61" t="s">
+        <v>45</v>
+      </c>
+      <c r="H61" t="s">
+        <v>46</v>
+      </c>
+      <c r="I61" t="s">
+        <v>388</v>
+      </c>
+      <c r="J61" t="s">
+        <v>389</v>
+      </c>
+      <c r="K61" t="s"/>
+      <c r="L61" t="s"/>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>385</v>
+      </c>
+      <c r="O61" t="s">
+        <v>52</v>
+      </c>
+      <c r="P61" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>4</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>43</v>
+      </c>
+      <c r="F62" t="s">
+        <v>390</v>
+      </c>
+      <c r="G62" t="s">
+        <v>45</v>
+      </c>
+      <c r="H62" t="s">
+        <v>46</v>
+      </c>
+      <c r="I62" t="s">
+        <v>391</v>
+      </c>
+      <c r="J62" t="s">
+        <v>392</v>
+      </c>
+      <c r="K62" t="s">
+        <v>393</v>
+      </c>
+      <c r="L62" t="s">
+        <v>394</v>
+      </c>
+      <c r="M62" t="n">
+        <v>5</v>
+      </c>
+      <c r="N62" t="s">
+        <v>385</v>
+      </c>
+      <c r="O62" t="s">
+        <v>205</v>
+      </c>
+      <c r="P62" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>5</v>
+      </c>
+      <c r="R62" t="n">
+        <v>5</v>
+      </c>
+      <c r="S62" t="n">
+        <v>5</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>5</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>43</v>
+      </c>
+      <c r="F63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+      <c r="H63" t="s">
+        <v>46</v>
+      </c>
+      <c r="I63" t="s">
+        <v>396</v>
+      </c>
+      <c r="J63" t="s">
+        <v>397</v>
+      </c>
+      <c r="K63" t="s">
+        <v>398</v>
+      </c>
+      <c r="L63" t="s">
+        <v>399</v>
+      </c>
+      <c r="M63" t="n">
+        <v>2</v>
+      </c>
+      <c r="N63" t="s">
+        <v>400</v>
+      </c>
+      <c r="O63" t="s">
+        <v>52</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>3</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2</v>
+      </c>
+      <c r="S63" t="n">
+        <v>3</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>43</v>
+      </c>
+      <c r="F64" t="s">
+        <v>401</v>
+      </c>
+      <c r="G64" t="s">
+        <v>45</v>
+      </c>
+      <c r="H64" t="s">
+        <v>46</v>
+      </c>
+      <c r="I64" t="s">
+        <v>402</v>
+      </c>
+      <c r="J64" t="s">
+        <v>403</v>
+      </c>
+      <c r="K64" t="s">
+        <v>404</v>
+      </c>
+      <c r="L64" t="s">
+        <v>405</v>
+      </c>
+      <c r="M64" t="n">
+        <v>5</v>
+      </c>
+      <c r="N64" t="s">
+        <v>406</v>
+      </c>
+      <c r="O64" t="s">
+        <v>64</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>5</v>
+      </c>
+      <c r="R64" t="n">
+        <v>5</v>
+      </c>
+      <c r="S64" t="n">
+        <v>5</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>5</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65" t="s">
+        <v>407</v>
+      </c>
+      <c r="G65" t="s">
+        <v>45</v>
+      </c>
+      <c r="H65" t="s">
+        <v>46</v>
+      </c>
+      <c r="I65" t="s">
+        <v>408</v>
+      </c>
+      <c r="J65" t="s">
+        <v>409</v>
+      </c>
+      <c r="K65" t="s">
+        <v>410</v>
+      </c>
+      <c r="L65" t="s">
+        <v>411</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>412</v>
+      </c>
+      <c r="O65" t="s">
+        <v>64</v>
+      </c>
+      <c r="P65" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>4</v>
+      </c>
+      <c r="R65" t="n">
+        <v>4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>3</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
+      </c>
+      <c r="F66" t="s">
+        <v>413</v>
+      </c>
+      <c r="G66" t="s">
+        <v>45</v>
+      </c>
+      <c r="H66" t="s">
+        <v>46</v>
+      </c>
+      <c r="I66" t="s">
+        <v>414</v>
+      </c>
+      <c r="J66" t="s">
+        <v>409</v>
+      </c>
+      <c r="K66" t="s">
+        <v>415</v>
+      </c>
+      <c r="L66" t="s">
+        <v>416</v>
+      </c>
+      <c r="M66" t="n">
+        <v>5</v>
+      </c>
+      <c r="N66" t="s">
+        <v>406</v>
+      </c>
+      <c r="O66" t="s">
+        <v>52</v>
+      </c>
+      <c r="P66" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>5</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>5</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>43</v>
+      </c>
+      <c r="F67" t="s">
+        <v>417</v>
+      </c>
+      <c r="G67" t="s">
+        <v>45</v>
+      </c>
+      <c r="H67" t="s">
+        <v>46</v>
+      </c>
+      <c r="I67" t="s">
+        <v>418</v>
+      </c>
+      <c r="J67" t="s">
+        <v>419</v>
+      </c>
+      <c r="K67" t="s">
+        <v>420</v>
+      </c>
+      <c r="L67" t="s">
+        <v>421</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>406</v>
+      </c>
+      <c r="O67" t="s">
+        <v>64</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>43</v>
+      </c>
+      <c r="F68" t="s">
+        <v>422</v>
+      </c>
+      <c r="G68" t="s">
+        <v>45</v>
+      </c>
+      <c r="H68" t="s">
+        <v>46</v>
+      </c>
+      <c r="I68" t="s">
+        <v>423</v>
+      </c>
+      <c r="J68" t="s">
+        <v>424</v>
+      </c>
+      <c r="K68" t="s"/>
+      <c r="L68" t="s"/>
+      <c r="M68" t="n">
+        <v>5</v>
+      </c>
+      <c r="N68" t="s">
+        <v>425</v>
+      </c>
+      <c r="O68" t="s">
+        <v>76</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>5</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>43</v>
+      </c>
+      <c r="F69" t="s">
+        <v>426</v>
+      </c>
+      <c r="G69" t="s">
+        <v>45</v>
+      </c>
+      <c r="H69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" t="s">
+        <v>427</v>
+      </c>
+      <c r="J69" t="s">
+        <v>428</v>
+      </c>
+      <c r="K69" t="s">
+        <v>429</v>
+      </c>
+      <c r="L69" t="s">
+        <v>430</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>431</v>
+      </c>
+      <c r="O69" t="s">
+        <v>205</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>4</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>43</v>
+      </c>
+      <c r="F70" t="s">
+        <v>432</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+      <c r="H70" t="s">
+        <v>46</v>
+      </c>
+      <c r="I70" t="s">
+        <v>433</v>
+      </c>
+      <c r="J70" t="s">
+        <v>434</v>
+      </c>
+      <c r="K70" t="s"/>
+      <c r="L70" t="s">
+        <v>163</v>
+      </c>
+      <c r="M70" t="n">
+        <v>5</v>
+      </c>
+      <c r="N70" t="s">
+        <v>435</v>
+      </c>
+      <c r="O70" t="s">
+        <v>64</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>5</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
+        <v>436</v>
+      </c>
+      <c r="G71" t="s">
+        <v>45</v>
+      </c>
+      <c r="H71" t="s">
+        <v>46</v>
+      </c>
+      <c r="I71" t="s">
+        <v>437</v>
+      </c>
+      <c r="J71" t="s">
+        <v>438</v>
+      </c>
+      <c r="K71" t="s">
+        <v>439</v>
+      </c>
+      <c r="L71" t="s">
+        <v>440</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
+        <v>441</v>
+      </c>
+      <c r="G72" t="s">
+        <v>45</v>
+      </c>
+      <c r="H72" t="s">
+        <v>46</v>
+      </c>
+      <c r="I72" t="s">
+        <v>442</v>
+      </c>
+      <c r="J72" t="s">
+        <v>443</v>
+      </c>
+      <c r="K72" t="s"/>
+      <c r="L72" t="s"/>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s">
+        <v>444</v>
+      </c>
+      <c r="O72" t="s">
+        <v>64</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s"/>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>43</v>
+      </c>
+      <c r="F73" t="s">
+        <v>445</v>
+      </c>
+      <c r="G73" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" t="s">
+        <v>46</v>
+      </c>
+      <c r="I73" t="s">
+        <v>446</v>
+      </c>
+      <c r="J73" t="s">
+        <v>447</v>
+      </c>
+      <c r="K73" t="s">
+        <v>448</v>
+      </c>
+      <c r="L73" t="s">
+        <v>449</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>444</v>
+      </c>
+      <c r="O73" t="s">
+        <v>52</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="n">
+        <v>4</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
+        <v>450</v>
+      </c>
+      <c r="G74" t="s">
+        <v>45</v>
+      </c>
+      <c r="H74" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>451</v>
+      </c>
+      <c r="J74" t="s">
+        <v>452</v>
+      </c>
+      <c r="K74" t="s">
+        <v>453</v>
+      </c>
+      <c r="L74" t="s">
+        <v>454</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>455</v>
+      </c>
+      <c r="O74" t="s">
+        <v>64</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>5</v>
+      </c>
+      <c r="R74" t="n">
+        <v>5</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>43</v>
+      </c>
+      <c r="F75" t="s">
+        <v>456</v>
+      </c>
+      <c r="G75" t="s">
+        <v>45</v>
+      </c>
+      <c r="H75" t="s">
+        <v>46</v>
+      </c>
+      <c r="I75" t="s">
+        <v>457</v>
+      </c>
+      <c r="J75" t="s">
+        <v>458</v>
+      </c>
+      <c r="K75" t="s">
+        <v>221</v>
+      </c>
+      <c r="L75" t="s">
+        <v>459</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>455</v>
+      </c>
+      <c r="O75" t="s">
+        <v>52</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>460</v>
+      </c>
+      <c r="G76" t="s">
+        <v>45</v>
+      </c>
+      <c r="H76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I76" t="s">
+        <v>461</v>
+      </c>
+      <c r="J76" t="s">
+        <v>462</v>
+      </c>
+      <c r="K76" t="s"/>
+      <c r="L76" t="s"/>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>463</v>
+      </c>
+      <c r="O76" t="s">
+        <v>52</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>43</v>
+      </c>
+      <c r="F77" t="s">
+        <v>464</v>
+      </c>
+      <c r="G77" t="s">
+        <v>45</v>
+      </c>
+      <c r="H77" t="s">
+        <v>46</v>
+      </c>
+      <c r="I77" t="s">
+        <v>465</v>
+      </c>
+      <c r="J77" t="s">
+        <v>466</v>
+      </c>
+      <c r="K77" t="s">
+        <v>467</v>
+      </c>
+      <c r="L77" t="s">
+        <v>468</v>
+      </c>
+      <c r="M77" t="n">
+        <v>5</v>
+      </c>
+      <c r="N77" t="s">
+        <v>463</v>
+      </c>
+      <c r="O77" t="s">
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>469</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>470</v>
+      </c>
+      <c r="J78" t="s">
+        <v>471</v>
+      </c>
+      <c r="K78" t="s">
+        <v>472</v>
+      </c>
+      <c r="L78" t="s">
+        <v>473</v>
+      </c>
+      <c r="M78" t="n">
+        <v>5</v>
+      </c>
+      <c r="N78" t="s">
+        <v>463</v>
+      </c>
+      <c r="O78" t="s">
+        <v>52</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>474</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>475</v>
+      </c>
+      <c r="J79" t="s">
+        <v>476</v>
+      </c>
+      <c r="K79" t="s">
+        <v>477</v>
+      </c>
+      <c r="L79" t="s">
+        <v>478</v>
+      </c>
+      <c r="M79" t="n">
+        <v>5</v>
+      </c>
+      <c r="N79" t="s">
+        <v>479</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>5</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>5</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>480</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>481</v>
+      </c>
+      <c r="J80" t="s">
+        <v>482</v>
+      </c>
+      <c r="K80" t="s">
+        <v>483</v>
+      </c>
+      <c r="L80" t="s">
+        <v>484</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>485</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>486</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>487</v>
+      </c>
+      <c r="J81" t="s">
+        <v>488</v>
+      </c>
+      <c r="K81" t="s">
+        <v>489</v>
+      </c>
+      <c r="L81" t="s">
+        <v>490</v>
+      </c>
+      <c r="M81" t="n">
+        <v>5</v>
+      </c>
+      <c r="N81" t="s">
+        <v>491</v>
+      </c>
+      <c r="O81" t="s">
+        <v>64</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>5</v>
+      </c>
+      <c r="R81" t="n">
+        <v>5</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>5</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>492</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>493</v>
+      </c>
+      <c r="J82" t="s">
+        <v>488</v>
+      </c>
+      <c r="K82" t="s"/>
+      <c r="L82" t="s"/>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>491</v>
+      </c>
+      <c r="O82" t="s">
+        <v>52</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="s"/>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>494</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>495</v>
+      </c>
+      <c r="J83" t="s">
+        <v>496</v>
+      </c>
+      <c r="K83" t="s">
+        <v>497</v>
+      </c>
+      <c r="L83" t="s">
+        <v>498</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>499</v>
+      </c>
+      <c r="O83" t="s">
+        <v>205</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>43</v>
+      </c>
+      <c r="F84" t="s">
+        <v>500</v>
+      </c>
+      <c r="G84" t="s">
+        <v>45</v>
+      </c>
+      <c r="H84" t="s">
+        <v>46</v>
+      </c>
+      <c r="I84" t="s">
+        <v>501</v>
+      </c>
+      <c r="J84" t="s">
+        <v>502</v>
+      </c>
+      <c r="K84" t="s">
+        <v>503</v>
+      </c>
+      <c r="L84" t="s">
+        <v>504</v>
+      </c>
+      <c r="M84" t="n">
+        <v>5</v>
+      </c>
+      <c r="N84" t="s">
+        <v>505</v>
+      </c>
+      <c r="O84" t="s">
+        <v>205</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>5</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>5</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>43</v>
+      </c>
+      <c r="F85" t="s">
+        <v>506</v>
+      </c>
+      <c r="G85" t="s">
+        <v>45</v>
+      </c>
+      <c r="H85" t="s">
+        <v>46</v>
+      </c>
+      <c r="I85" t="s">
+        <v>507</v>
+      </c>
+      <c r="J85" t="s">
+        <v>508</v>
+      </c>
+      <c r="K85" t="s">
+        <v>509</v>
+      </c>
+      <c r="L85" t="s">
+        <v>510</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s">
+        <v>511</v>
+      </c>
+      <c r="O85" t="s">
+        <v>76</v>
+      </c>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="n">
+        <v>5</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>43</v>
+      </c>
+      <c r="F86" t="s">
+        <v>512</v>
+      </c>
+      <c r="G86" t="s">
+        <v>45</v>
+      </c>
+      <c r="H86" t="s">
+        <v>46</v>
+      </c>
+      <c r="I86" t="s">
+        <v>513</v>
+      </c>
+      <c r="J86" t="s">
+        <v>514</v>
+      </c>
+      <c r="K86" t="s">
+        <v>515</v>
+      </c>
+      <c r="L86" t="s">
+        <v>516</v>
+      </c>
+      <c r="M86" t="n">
+        <v>2</v>
+      </c>
+      <c r="N86" t="s">
+        <v>511</v>
+      </c>
+      <c r="O86" t="s">
+        <v>52</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="n">
+        <v>5</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>43</v>
+      </c>
+      <c r="F87" t="s">
+        <v>517</v>
+      </c>
+      <c r="G87" t="s">
+        <v>45</v>
+      </c>
+      <c r="H87" t="s">
+        <v>46</v>
+      </c>
+      <c r="I87" t="s">
+        <v>518</v>
+      </c>
+      <c r="J87" t="s">
+        <v>519</v>
+      </c>
+      <c r="K87" t="s"/>
+      <c r="L87" t="s"/>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>520</v>
+      </c>
+      <c r="O87" t="s">
+        <v>64</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
+        <v>521</v>
+      </c>
+      <c r="G88" t="s">
+        <v>45</v>
+      </c>
+      <c r="H88" t="s">
+        <v>46</v>
+      </c>
+      <c r="I88" t="s">
+        <v>522</v>
+      </c>
+      <c r="J88" t="s">
+        <v>523</v>
+      </c>
+      <c r="K88" t="s">
+        <v>524</v>
+      </c>
+      <c r="L88" t="s">
+        <v>525</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>520</v>
+      </c>
+      <c r="O88" t="s">
+        <v>52</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
+        <v>527</v>
+      </c>
+      <c r="G89" t="s">
+        <v>45</v>
+      </c>
+      <c r="H89" t="s">
+        <v>46</v>
+      </c>
+      <c r="I89" t="s">
+        <v>528</v>
+      </c>
+      <c r="J89" t="s">
+        <v>529</v>
+      </c>
+      <c r="K89" t="s">
+        <v>530</v>
+      </c>
+      <c r="L89" t="s">
+        <v>531</v>
+      </c>
+      <c r="M89" t="n">
+        <v>5</v>
+      </c>
+      <c r="N89" t="s">
+        <v>532</v>
+      </c>
+      <c r="O89" t="s">
+        <v>52</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>5</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>5</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>43</v>
+      </c>
+      <c r="F90" t="s">
+        <v>533</v>
+      </c>
+      <c r="G90" t="s">
+        <v>45</v>
+      </c>
+      <c r="H90" t="s">
+        <v>46</v>
+      </c>
+      <c r="I90" t="s">
+        <v>534</v>
+      </c>
+      <c r="J90" t="s">
+        <v>535</v>
+      </c>
+      <c r="K90" t="s"/>
+      <c r="L90" t="s">
+        <v>163</v>
+      </c>
+      <c r="M90" t="n">
+        <v>4</v>
+      </c>
+      <c r="N90" t="s">
+        <v>532</v>
+      </c>
+      <c r="O90" t="s">
+        <v>64</v>
+      </c>
+      <c r="P90" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>5</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>4</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>43</v>
+      </c>
+      <c r="F91" t="s">
+        <v>536</v>
+      </c>
+      <c r="G91" t="s">
+        <v>45</v>
+      </c>
+      <c r="H91" t="s">
+        <v>46</v>
+      </c>
+      <c r="I91" t="s">
+        <v>537</v>
+      </c>
+      <c r="J91" t="s">
+        <v>538</v>
+      </c>
+      <c r="K91" t="s">
+        <v>539</v>
+      </c>
+      <c r="L91" t="s">
+        <v>540</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>541</v>
+      </c>
+      <c r="O91" t="s">
+        <v>52</v>
+      </c>
+      <c r="P91" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>4</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>43</v>
+      </c>
+      <c r="F92" t="s">
+        <v>542</v>
+      </c>
+      <c r="G92" t="s">
+        <v>45</v>
+      </c>
+      <c r="H92" t="s">
+        <v>46</v>
+      </c>
+      <c r="I92" t="s">
+        <v>543</v>
+      </c>
+      <c r="J92" t="s">
+        <v>544</v>
+      </c>
+      <c r="K92" t="s">
+        <v>545</v>
+      </c>
+      <c r="L92" t="s">
+        <v>546</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2</v>
+      </c>
+      <c r="N92" t="s">
+        <v>547</v>
+      </c>
+      <c r="O92" t="s">
+        <v>52</v>
+      </c>
+      <c r="P92" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>3</v>
+      </c>
+      <c r="R92" t="n">
+        <v>3</v>
+      </c>
+      <c r="S92" t="n">
+        <v>3</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>43</v>
+      </c>
+      <c r="F93" t="s">
+        <v>548</v>
+      </c>
+      <c r="G93" t="s">
+        <v>45</v>
+      </c>
+      <c r="H93" t="s">
+        <v>46</v>
+      </c>
+      <c r="I93" t="s">
+        <v>549</v>
+      </c>
+      <c r="J93" t="s">
+        <v>550</v>
+      </c>
+      <c r="K93" t="s">
+        <v>551</v>
+      </c>
+      <c r="L93" t="s">
+        <v>552</v>
+      </c>
+      <c r="M93" t="n">
+        <v>1</v>
+      </c>
+      <c r="N93" t="s">
+        <v>553</v>
+      </c>
+      <c r="O93" t="s">
+        <v>52</v>
+      </c>
+      <c r="P93" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>1</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>1</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>1</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>43</v>
+      </c>
+      <c r="F94" t="s">
+        <v>555</v>
+      </c>
+      <c r="G94" t="s">
+        <v>45</v>
+      </c>
+      <c r="H94" t="s">
+        <v>46</v>
+      </c>
+      <c r="I94" t="s">
+        <v>556</v>
+      </c>
+      <c r="J94" t="s">
+        <v>557</v>
+      </c>
+      <c r="K94" t="s">
+        <v>558</v>
+      </c>
+      <c r="L94" t="s">
+        <v>559</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s"/>
+      <c r="O94" t="s"/>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
+        <v>560</v>
+      </c>
+      <c r="G95" t="s">
+        <v>45</v>
+      </c>
+      <c r="H95" t="s">
+        <v>46</v>
+      </c>
+      <c r="I95" t="s">
+        <v>561</v>
+      </c>
+      <c r="J95" t="s">
+        <v>562</v>
+      </c>
+      <c r="K95" t="s">
+        <v>563</v>
+      </c>
+      <c r="L95" t="s">
+        <v>564</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>565</v>
+      </c>
+      <c r="O95" t="s">
+        <v>52</v>
+      </c>
+      <c r="P95" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>1</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>3</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>567</v>
+      </c>
+      <c r="G96" t="s">
+        <v>45</v>
+      </c>
+      <c r="H96" t="s">
+        <v>46</v>
+      </c>
+      <c r="I96" t="s">
+        <v>568</v>
+      </c>
+      <c r="J96" t="s">
+        <v>569</v>
+      </c>
+      <c r="K96" t="s">
+        <v>570</v>
+      </c>
+      <c r="L96" t="s">
+        <v>571</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>572</v>
+      </c>
+      <c r="O96" t="s">
+        <v>64</v>
+      </c>
+      <c r="P96" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>4</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>2</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>43</v>
+      </c>
+      <c r="F97" t="s">
+        <v>573</v>
+      </c>
+      <c r="G97" t="s">
+        <v>45</v>
+      </c>
+      <c r="H97" t="s">
+        <v>46</v>
+      </c>
+      <c r="I97" t="s">
+        <v>574</v>
+      </c>
+      <c r="J97" t="s">
+        <v>575</v>
+      </c>
+      <c r="K97" t="s">
+        <v>576</v>
+      </c>
+      <c r="L97" t="s">
+        <v>577</v>
+      </c>
+      <c r="M97" t="n">
+        <v>5</v>
+      </c>
+      <c r="N97" t="s">
+        <v>578</v>
+      </c>
+      <c r="O97" t="s">
+        <v>52</v>
+      </c>
+      <c r="P97" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>5</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>5</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>5</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>580</v>
+      </c>
+      <c r="G98" t="s">
+        <v>45</v>
+      </c>
+      <c r="H98" t="s">
+        <v>46</v>
+      </c>
+      <c r="I98" t="s">
+        <v>581</v>
+      </c>
+      <c r="J98" t="s">
+        <v>582</v>
+      </c>
+      <c r="K98" t="s">
+        <v>583</v>
+      </c>
+      <c r="L98" t="s">
+        <v>584</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="s">
+        <v>585</v>
+      </c>
+      <c r="O98" t="s">
+        <v>64</v>
+      </c>
+      <c r="P98" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>1</v>
+      </c>
+      <c r="R98" t="n">
+        <v>3</v>
+      </c>
+      <c r="S98" t="n">
+        <v>2</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>2</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>58171</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>587</v>
+      </c>
+      <c r="G99" t="s">
+        <v>45</v>
+      </c>
+      <c r="H99" t="s">
+        <v>46</v>
+      </c>
+      <c r="I99" t="s">
+        <v>588</v>
+      </c>
+      <c r="J99" t="s">
+        <v>589</v>
+      </c>
+      <c r="K99" t="s">
+        <v>590</v>
+      </c>
+      <c r="L99" t="s">
+        <v>591</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>592</v>
+      </c>
+      <c r="O99" t="s">
+        <v>64</v>
+      </c>
+      <c r="P99" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>4</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>4</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>591</v>
       </c>
     </row>
   </sheetData>
